--- a/Assets/Scripts/Log/Boat/风载荷系数.xlsx
+++ b/Assets/Scripts/Log/Boat/风载荷系数.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13380"/>
+    <workbookView windowHeight="13380" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="CN" sheetId="3" r:id="rId3"/>
+    <sheet name="CK" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,6 +27,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>9.04101E-09</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -646,6 +655,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3184,6 +3196,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{b1470ab5-ff94-4f81-8842-2ae29e4a99c8}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5694,6 +5711,5031 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{41642cee-e24c-4b1d-bc9c-6cbee4d4bb83}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>CN!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CN!$B$1:$B$181</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="181"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.004969523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01001797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01513549</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02031222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02553824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03080363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03609844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04141268</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.04673635</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.05205943</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0573719</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.06266376</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.06792498</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.07314561</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.07831571</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.08342547</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.08846509</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.09342495</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.09829549</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1030674</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1077316</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.112279</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.116701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1209891</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1251353</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1291317</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1329711</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1366463</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1401509</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1434787</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.146624</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1495818</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1523476</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1549172</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1572872</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.1594547</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1614176</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1631743</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.1647236</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.1660653</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.1671996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1681275</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1688505</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1693708</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.1696911</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.169815</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.1697463</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.1694895</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.1690498</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.1684328</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1676444</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.1666912</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.1655802</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.1643184</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.1629137</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.1613739</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.159707</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.1579216</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.156026</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.1540289</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.151939</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.1497648</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.1475152</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.1451986</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.1428234</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.1403981</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.1379306</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.1354287</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.1329001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.1303519</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.127791</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.1252238</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.1226565</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.1200946</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.1175434</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.1150074</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.112491</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.1099978</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.107531</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.1050934</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.1026871</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.1003138</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.09797481</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.09567077</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.09340198</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.09116826</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.08896902</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.08680326</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.08466961</c:v>
+                </c:pt>
+                <c:pt idx="90" c:formatCode="0.00E+00">
+                  <c:v>0.08256637</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.08048925</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0784339</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.07639819</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.07437982</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.07237626</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.07038493</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.06840317</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.06642824</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.06445742</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.06248803</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.06051739</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.05854297</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.05656237</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.05457332</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.05257375</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.05056184</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.04853594</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.04649472</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.04443713</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.0423624</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.0402701</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.0381601</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.03603264</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.03388828</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.03172797</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.02955296</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.02736484</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.02516563</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.02295755</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.02074329</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.01852573</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.01630806</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.01409383</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.01188673</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.009690801</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.007510201</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.005349276</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.003212614</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.001104818</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.0009692928</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.003004943</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.004997202</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.00694121</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.008832128</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.01066508</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.01243537</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.01413832</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.01576945</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.01732438</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.01879897</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.02018928</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.02149154</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.0227023</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.02381834</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.02483675</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.0257549</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-0.02657048</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.02728152</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.02788635</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.02838368</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.02877254</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.02905231</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.02922273</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.02928387</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.02923617</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.0290804</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.02881766</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-0.02844938</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-0.02797732</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.02740354</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.02673041</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.02596058</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.02509699</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.02414284</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.02310156</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.02197685</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.02077262</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.01949301</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.01814235</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.01672512</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.01524607</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.01371</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.01212198</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.01048714</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.008810764</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.00709831</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.005355274</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.003587366</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.001800298</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="601061076"/>
+        <c:axId val="841674395"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>CN!$A:$A</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1048576"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>101</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>103</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>105</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>106</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>109</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>113</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>115</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>117</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>119</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>121</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>122</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>123</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>129</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>131</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>133</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>134</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>135</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>137</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>138</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>139</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>141</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>142</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>143</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>146</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>147</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>149</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>151</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>153</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>155</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>156</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>157</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>158</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>159</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>161</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>162</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>163</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>164</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>167</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>168</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>169</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>171</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>172</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>173</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>174</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>175</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>176</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>177</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>178</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>179</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>180</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CN!$A$1:$A$181</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="181"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>101</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>103</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>105</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>106</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>109</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>113</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>115</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>117</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>119</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>121</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>122</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>123</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>129</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>131</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>133</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>134</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>135</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>137</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>138</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>139</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>141</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>142</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>143</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>146</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>147</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>149</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>151</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>153</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>155</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>156</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>157</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>158</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>159</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>161</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>162</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>163</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>164</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>167</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>168</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>169</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>171</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>172</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>173</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>174</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>175</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>176</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>177</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>178</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>179</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>180</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="601061076"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841674395"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="841674395"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601061076"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>CK!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CK!$B$1:$B$181</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="181"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01038176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02109252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03211915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04344809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05506529</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06695614</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.07910553</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09149781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1041167</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1169455</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1299666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1431623</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1565138</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1700021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1836075</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1973099</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2110884</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.224922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2387889</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2526673</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2665348</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2803686</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2941461</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3078441</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3214396</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.3349094</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.3482305</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36138</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3743352</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3870738</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.399574</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.411814</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4237733</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.4354318</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.44677</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.4577695</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.4684128</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.4786836</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4885663</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4980472</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5071133</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.5157533</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.5239571</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.5317165</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5390243</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.5458755</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.5522661</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.5581943</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5636598</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5686638</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.5732095</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.5773017</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.5809469</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5841529</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5869299</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.5892889</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.591243</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.5928065</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.5939949</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.5948255</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.5953165</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.5954874</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.5953585</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.5949514</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.5942882</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.5933918</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.5922858</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.5909939</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.5895407</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.5879502</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.586247</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.5844556</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.5826</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.5807037</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.5787904</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.5768822</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.5750012</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.5731683</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.5714032</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.569725</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.5681508</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.5666971</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.5653785</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.5642083</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.5631981</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.5623578</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.5616955</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.5612178</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.5609294</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.560833</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.5609134</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.5611541</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.5615522</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.5621036</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.5628023</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.5636407</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.5646094</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.5656979</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.5668938</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.5681835</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.569552</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.5709832</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.5724595</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.5739627</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.5754734</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.5769714</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.5784358</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.5798452</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.5811778</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.5824113</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.5835231</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.5844908</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.585292</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.5859044</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.5863059</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.5864751</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.5863909</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.5860331</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.585382</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.5844193</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.5831268</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.5814884</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.5794885</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.577113</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.5743489</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.5711851</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.5676113</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.5636192</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.5592017</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.5543536</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.549071</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.5433518</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.5371951</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.5306023</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.5235758</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.5161199</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.5082402</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.4999438</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.4912398</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.4821378</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.4726492</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.4627871</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.4525651</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.4419985</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.4311033</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.4198965</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.4083963</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.3966213</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.3845915</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.3723269</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.3598479</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.3471763</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.3343332</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.321341</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.3082213</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.2949968</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.2816896</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.2683216</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.2549154</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.2414927</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.2280755</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.2146848</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.2013423</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.1880685</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.1748835</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.1618074</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.1488593</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.1360583</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.1234226</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.1109696</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.09871695</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.08668081</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.07487755</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.06332245</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.05203027</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.04101566</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.03029213</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.01987329</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.009771689</c:v>
+                </c:pt>
+                <c:pt idx="180" c:formatCode="0.00E+00">
+                  <c:v>-4.810062e-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="759163082"/>
+        <c:axId val="592870699"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>CK!$A:$A</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1048576"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>101</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>103</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>105</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>106</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>109</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>113</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>115</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>117</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>119</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>121</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>122</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>123</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>129</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>131</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>133</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>134</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>135</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>137</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>138</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>139</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>141</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>142</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>143</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>146</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>147</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>149</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>151</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>153</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>155</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>156</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>157</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>158</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>159</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>161</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>162</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>163</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>164</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>167</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>168</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>169</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>171</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>172</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>173</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>174</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>175</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>176</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>177</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>178</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>179</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>180</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>CK!$A$1:$A$181</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="181"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>101</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>103</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>105</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>106</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>109</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>113</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>115</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>117</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>119</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>121</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>122</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>123</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>129</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>131</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>133</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>134</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>135</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>137</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>138</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>139</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>141</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>142</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>143</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>146</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>147</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>149</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>151</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>153</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>155</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>156</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>157</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>158</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>159</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="161">
+                        <c:v>161</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>162</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>163</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>164</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>167</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>168</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>169</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>171</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>172</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>173</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>174</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>175</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>176</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>177</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>178</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>179</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>180</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="759163082"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="592870699"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="592870699"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="759163082"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5768,6 +10810,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6817,6 +11939,1016 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10028">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10028">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6864,6 +12996,76 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10299700" y="2654300"/>
+        <a:ext cx="4826000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>424180</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10299700" y="2654300"/>
+        <a:ext cx="4826000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>538480</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>93980</xdr:rowOff>
     </xdr:to>
@@ -7139,7 +13341,7 @@
   <sheetPr/>
   <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B181"/>
     </sheetView>
   </sheetViews>
@@ -8610,7 +14812,7 @@
   <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:B$1048576"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -10074,16 +16276,2935 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.004969523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.01001797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.01513549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.02031222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.02553824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.03080363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.03609844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.04141268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.04673635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.05205943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.0573719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.06266376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.06792498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.07314561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.07831571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.08342547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.08846509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.09342495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.09829549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.1030674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.1077316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.112279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.116701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.1209891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.1251353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.1291317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.1329711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.1366463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.1401509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.1434787</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.146624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.1495818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.1523476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.1549172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.1572872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0.1594547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.1614176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0.1631743</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.1647236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0.1660653</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0.1671996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0.1681275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.1688505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0.1693708</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.1696911</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.169815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.1697463</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0.1694895</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0.1690498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0.1684328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0.1676444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0.1666912</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0.1655802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0.1643184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0.1629137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0.1613739</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0.159707</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0.1579216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0.156026</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0.1540289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0.151939</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0.1497648</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0.1475152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0.1451986</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0.1428234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0.1403981</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0.1379306</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0.1354287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>0.1329001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>0.1303519</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0.127791</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>0.1252238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0.1226565</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0.1200946</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0.1175434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0.1150074</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0.112491</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0.1099978</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0.107531</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0.1050934</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0.1026871</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0.1003138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0.09797481</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0.09567077</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>0.09340198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0.09116826</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>0.08896902</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0.08680326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>0.08466961</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.08256637</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>0.08048925</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>0.0784339</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>0.07639819</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>0.07437982</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>0.07237626</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>0.07038493</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>0.06840317</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>0.06642824</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>0.06445742</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>0.06248803</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>0.06051739</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>0.05854297</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>0.05656237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>0.05457332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>0.05257375</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>0.05056184</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>0.04853594</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>0.04649472</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>0.04443713</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>0.0423624</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>0.0402701</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>0.0381601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>0.03603264</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>0.03388828</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>0.03172797</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>0.02955296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>0.02736484</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>0.02516563</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>0.02295755</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>0.02074329</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>0.01852573</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>0.01630806</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>0.01409383</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>0.01188673</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>0.009690801</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>0.007510201</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>0.005349276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>0.003212614</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>0.001104818</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>-0.0009692928</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>-0.003004943</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>-0.004997202</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>-0.00694121</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>-0.008832128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>-0.01066508</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>-0.01243537</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>-0.01413832</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>-0.01576945</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>-0.01732438</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>-0.01879897</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>-0.02018928</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>-0.02149154</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>-0.0227023</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>-0.02381834</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>-0.02483675</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>-0.0257549</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>-0.02657048</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>-0.02728152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>-0.02788635</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>-0.02838368</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>-0.02877254</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>-0.02905231</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>-0.02922273</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>-0.02928387</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>-0.02923617</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>-0.0290804</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>-0.02881766</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>-0.02844938</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>-0.02797732</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>-0.02740354</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>-0.02673041</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>-0.02596058</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>-0.02509699</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>-0.02414284</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>-0.02310156</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>-0.02197685</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>-0.02077262</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>-0.01949301</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>-0.01814235</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>-0.01672512</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>-0.01524607</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>-0.01371</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>-0.01212198</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>-0.01048714</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>-0.008810764</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>-0.00709831</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>-0.005355274</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>-0.003587366</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>-0.001800298</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B181"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B181"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.01038176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.02109252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.03211915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.04344809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.05506529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.06695614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.07910553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.09149781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1041167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.1169455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.1299666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.1431623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.1565138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.1700021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.1836075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.1973099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.2110884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.224922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.2387889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.2526673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.2665348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.2803686</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.2941461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.3078441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.3214396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.3349094</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.3482305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.36138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.3743352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.3870738</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.399574</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.411814</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.4237733</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.4354318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.44677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0.4577695</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.4684128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0.4786836</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.4885663</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0.4980472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0.5071133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0.5157533</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.5239571</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0.5317165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.5390243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.5458755</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.5522661</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0.5581943</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0.5636598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0.5686638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0.5732095</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0.5773017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0.5809469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0.5841529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0.5869299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0.5892889</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0.591243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0.5928065</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0.5939949</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0.5948255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0.5953165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0.5954874</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0.5953585</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0.5949514</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0.5942882</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0.5933918</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0.5922858</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0.5909939</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>0.5895407</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>0.5879502</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0.586247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>0.5844556</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0.5826</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0.5807037</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0.5787904</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0.5768822</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0.5750012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0.5731683</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0.5714032</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0.569725</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0.5681508</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0.5666971</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0.5653785</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0.5642083</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>0.5631981</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0.5623578</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>0.5616955</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0.5612178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>0.5609294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0.560833</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>0.5609134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>0.5611541</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>0.5615522</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>0.5621036</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>0.5628023</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>0.5636407</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>0.5646094</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>0.5656979</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>0.5668938</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>0.5681835</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>0.569552</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>0.5709832</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>0.5724595</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>0.5739627</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>0.5754734</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>0.5769714</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>0.5784358</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>0.5798452</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>0.5811778</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>0.5824113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>0.5835231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>0.5844908</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>0.585292</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>0.5859044</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>0.5863059</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>0.5864751</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>0.5863909</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>0.5860331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>0.585382</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>0.5844193</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>0.5831268</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>0.5814884</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>0.5794885</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>0.577113</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>0.5743489</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>0.5711851</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>0.5676113</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>0.5636192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>0.5592017</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>0.5543536</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>0.549071</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>0.5433518</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>0.5371951</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>0.5306023</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>0.5235758</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>0.5161199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>0.5082402</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>0.4999438</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>0.4912398</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>0.4821378</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>0.4726492</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>0.4627871</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>0.4525651</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>0.4419985</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>0.4311033</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>0.4198965</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>0.4083963</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>0.3966213</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>0.3845915</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>0.3723269</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>0.3598479</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>0.3471763</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>0.3343332</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>0.321341</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>0.3082213</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>0.2949968</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>0.2816896</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>0.2683216</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>0.2549154</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>0.2414927</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>0.2280755</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>0.2146848</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>0.2013423</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>0.1880685</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>0.1748835</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>0.1618074</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>0.1488593</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>0.1360583</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>0.1234226</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>0.1109696</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>0.09871695</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>0.08668081</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>0.07487755</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>0.06332245</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>0.05203027</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>0.04101566</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>0.03029213</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>0.01987329</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>0.009771689</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1">
+        <v>-4.810062e-8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Scripts/Log/Boat/风载荷系数.xlsx
+++ b/Assets/Scripts/Log/Boat/风载荷系数.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13380" activeTab="2"/>
+    <workbookView windowHeight="13380" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="CN" sheetId="3" r:id="rId3"/>
     <sheet name="CK" sheetId="4" r:id="rId4"/>
+    <sheet name="Uz" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,9 +31,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>9.04101E-09</t>
+  </si>
+  <si>
+    <t>平均：</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>和10m比较</t>
+  </si>
+  <si>
+    <t>最大20m</t>
+  </si>
+  <si>
+    <t>最小0.2m</t>
   </si>
 </sst>
 </file>
@@ -8226,6 +8245,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{e754872d-ccf0-45a8-98df-34af215c7ad8}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10691,6 +10715,1572 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="759163082"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{50e35022-5c9b-4ca5-ad12-6a28f88e8d9c}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"Uz"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Uz!$C:$C</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16.6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17.4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17.6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18.4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18.6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19.4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19.6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Uz!$B$1:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.744457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.08336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.295651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.452935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.578889</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.684441</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.77558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.85596</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.927983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.993314</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.053159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.108419</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.159787</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.207807</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.252913</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.295462</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.335744</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.374003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.410446</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.445248</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.478558</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.510509</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.541213</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.570771</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.599269</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.626788</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.653395</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.679154</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.70412</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.728343</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.75187</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.774742</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.796998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.81867</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.839792</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.860392</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.880498</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.900133</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.919322</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.938084</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.956441</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.97441</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.992008</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.009253</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.026157</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.042736</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.059002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.074968</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.090646</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.106047</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.12118</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.136055</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.150683</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.165071</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.179228</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.193161</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.206879</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.220387</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.233692</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.246802</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.259723</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.27246</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.285017</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.297401</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.309618</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.32167</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.333565</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.345304</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.356894</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.368338</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.37964</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.390803</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.401832</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.412728</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.423497</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.434141</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.444663</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.455066</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.465353</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.475527</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.48559</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.495545</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.505394</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.515141</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.524786</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.534331</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.543782</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.553137</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6.562399</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.57157</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.580654</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.58965</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.598561</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.607389</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.616135</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.6248</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.633387</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.641897</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.650331</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.658691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="467272678"/>
+        <c:axId val="647953644"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref/>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Uz!$C:$C</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1048576"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.4</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.6</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.6</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>3.4</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.6</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>4.2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>4.4</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>4.6</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>4.8</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>5.2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>5.4</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>5.6</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>5.8</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>6.2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>6.4</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>6.6</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>6.8</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>7.2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>7.4</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>7.6</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>7.8</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>8.2</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>8.4</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>8.6</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>8.8</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>9.2</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>9.4</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>9.6</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>9.8</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>10.2</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>10.4</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>10.6</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>10.8</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>11.2</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>11.4</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>11.6</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>11.8</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>12.2</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>12.4</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>12.6</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>12.8</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>13.2</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>13.4</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>13.6</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>13.8</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>14.2</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>14.4</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>14.6</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>14.8</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>15.2</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>15.4</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>15.6</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>15.8</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>16.2</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>16.4</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>16.6</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>16.8</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>17.2</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>17.4</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>17.6</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>17.8</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>18.2</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>18.4</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>18.6</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>18.8</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>19.2</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>19.4</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>19.6</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>19.8</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Uz!$A$1:$A$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="467272678"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647953644"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="647953644"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467272678"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10890,6 +12480,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12949,6 +14579,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10028">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -13076,6 +15211,41 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10299700" y="2654300"/>
+        <a:ext cx="4826000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7861300" y="284480"/>
         <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -16278,7 +18448,7 @@
   <sheetPr/>
   <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B181"/>
     </sheetView>
   </sheetViews>
@@ -19207,4 +21377,1281 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="6" max="6" width="11.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778"/>
+    <col min="8" max="8" width="14.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="12.8888888888889"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>A1*0.2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3.744457</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C18" si="0">A2*0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(B2:B101)</f>
+        <v>5.93719395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4.08336</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4.295651</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f>B101-B51</f>
+        <v>0.552644</v>
+      </c>
+      <c r="I4">
+        <v>6.106047</v>
+      </c>
+      <c r="J4">
+        <f>H4/I4</f>
+        <v>0.0905076557714017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4.452935</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f>B52-B2</f>
+        <v>2.376723</v>
+      </c>
+      <c r="J5">
+        <f>H5/I4</f>
+        <v>0.389240862377902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4.578889</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4.684441</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4.77558</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4.85596</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4.927983</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4.993314</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5.053159</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5.108419</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5.159787</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5.207807</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5.252913</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5.295462</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5.335744</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5.374003</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:C50" si="1">A19*0.2</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5.410446</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5.445248</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5.478558</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5.510509</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5.541213</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>5.570771</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5.599269</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>5.626788</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>5.653395</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>5.679154</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>5.70412</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>5.728343</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>5.75187</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>5.774742</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>5.796998</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5.81867</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>5.839792</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5.860392</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>5.880498</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>5.900133</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>5.919322</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>5.938084</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>5.956441</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5.97441</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>5.992008</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>6.009253</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>6.026157</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>6.042736</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>6.059002</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>6.074968</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>6.090646</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>9.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>6.106047</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:C82" si="2">A51*0.2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>6.12118</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>6.136055</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>6.150683</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="2"/>
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>6.165071</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="2"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>6.179228</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>6.193161</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>6.206879</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="2"/>
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>6.220387</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="2"/>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>6.233692</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="2"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>6.246802</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>6.259723</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="2"/>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>6.27246</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="2"/>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>6.285017</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="2"/>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>6.297401</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="2"/>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>6.309618</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>6.32167</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>6.333565</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>6.345304</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>6.356894</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>6.368338</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>6.37964</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>6.390803</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>6.401832</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>6.412728</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>6.423497</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>6.434141</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>6.444663</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>6.455066</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>6.465353</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>6.475527</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>6.48559</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>6.495545</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ref="C83:C101" si="3">A83*0.2</f>
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>6.505394</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="3"/>
+        <v>16.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>6.515141</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="3"/>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>6.524786</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>6.534331</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>6.543782</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="3"/>
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>6.553137</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="3"/>
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>6.562399</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="3"/>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>6.57157</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>6.580654</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="3"/>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>6.58965</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="3"/>
+        <v>18.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>6.598561</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="3"/>
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>6.607389</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="3"/>
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>6.616135</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>6.6248</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="3"/>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>6.633387</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="3"/>
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>6.641897</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="3"/>
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>6.650331</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="3"/>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>6.658691</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Scripts/Log/Boat/风载荷系数.xlsx
+++ b/Assets/Scripts/Log/Boat/风载荷系数.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13380" activeTab="4"/>
+    <workbookView windowWidth="24750" windowHeight="10480" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="CX" sheetId="1" r:id="rId1"/>
+    <sheet name="CY" sheetId="2" r:id="rId2"/>
     <sheet name="CN" sheetId="3" r:id="rId3"/>
     <sheet name="CK" sheetId="4" r:id="rId4"/>
     <sheet name="Uz" sheetId="5" r:id="rId5"/>
@@ -808,7 +808,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A:$A</c:f>
+              <c:f>CX!$A:$A</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
@@ -1360,552 +1360,552 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$181</c:f>
+              <c:f>CX!$B$1:$B$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="181"/>
                 <c:pt idx="0">
-                  <c:v>-0.6618267</c:v>
+                  <c:v>-0.3139475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.6585666</c:v>
+                  <c:v>-0.3223777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.6548356</c:v>
+                  <c:v>-0.3302091</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.6506427</c:v>
+                  <c:v>-0.3374149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.6459967</c:v>
+                  <c:v>-0.3439684</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.6409063</c:v>
+                  <c:v>-0.3498428</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.6353799</c:v>
+                  <c:v>-0.3550116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.6294258</c:v>
+                  <c:v>-0.3594491</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.6230522</c:v>
+                  <c:v>-0.3631299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.6162668</c:v>
+                  <c:v>-0.3660296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.6090776</c:v>
+                  <c:v>-0.3681245</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.6014921</c:v>
+                  <c:v>-0.3693926</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.5935181</c:v>
+                  <c:v>-0.3698131</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.5851629</c:v>
+                  <c:v>-0.3693666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.5764344</c:v>
+                  <c:v>-0.3680358</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.5673403</c:v>
+                  <c:v>-0.3658056</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.5578881</c:v>
+                  <c:v>-0.3626629</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.548086</c:v>
+                  <c:v>-0.358597</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.5379425</c:v>
+                  <c:v>-0.3536002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.5274659</c:v>
+                  <c:v>-0.3476673</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.5166654</c:v>
+                  <c:v>-0.3407964</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.5055505</c:v>
+                  <c:v>-0.3329885</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.4941311</c:v>
+                  <c:v>-0.3242483</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.482418</c:v>
+                  <c:v>-0.3145838</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.4704223</c:v>
+                  <c:v>-0.3040066</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.4581562</c:v>
+                  <c:v>-0.2925322</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.4456324</c:v>
+                  <c:v>-0.2801797</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.4328644</c:v>
+                  <c:v>-0.2669724</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.4198668</c:v>
+                  <c:v>-0.2529371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.406655</c:v>
+                  <c:v>-0.2381051</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.3932451</c:v>
+                  <c:v>-0.2225111</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.3796547</c:v>
+                  <c:v>-0.2061943</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.3659017</c:v>
+                  <c:v>-0.1891974</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.3520056</c:v>
+                  <c:v>-0.171567</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.3379865</c:v>
+                  <c:v>-0.1533535</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.3238654</c:v>
+                  <c:v>-0.1346111</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.3096647</c:v>
+                  <c:v>-0.115397</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.2954071</c:v>
+                  <c:v>-0.09577194</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.2811166</c:v>
+                  <c:v>-0.07579993</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.2668179</c:v>
+                  <c:v>-0.05554745</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.2525364</c:v>
+                  <c:v>-0.0350839</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.2382981</c:v>
+                  <c:v>-0.01448097</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.2241299</c:v>
+                  <c:v>0.00618775</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.2100589</c:v>
+                  <c:v>0.02684666</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.1961126</c:v>
+                  <c:v>0.04741893</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.1823193</c:v>
+                  <c:v>0.06782644</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.1687067</c:v>
+                  <c:v>0.08799065</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.1553034</c:v>
+                  <c:v>0.1078321</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.1421372</c:v>
+                  <c:v>0.1272721</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.1292364</c:v>
+                  <c:v>0.1462317</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.1166285</c:v>
+                  <c:v>0.1646328</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.1043407</c:v>
+                  <c:v>0.182399</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.09239964</c:v>
+                  <c:v>0.1994549</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.08083121</c:v>
+                  <c:v>0.2157275</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.0696604</c:v>
+                  <c:v>0.2311457</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.05891119</c:v>
+                  <c:v>0.2456417</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.04860646</c:v>
+                  <c:v>0.2591504</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.03876757</c:v>
+                  <c:v>0.2716107</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.02941483</c:v>
+                  <c:v>0.2829646</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.0205666</c:v>
+                  <c:v>0.2931591</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.01223973</c:v>
+                  <c:v>0.3021453</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.004449361</c:v>
+                  <c:v>0.309879</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.002791518</c:v>
+                  <c:v>0.3163216</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.009471731</c:v>
+                  <c:v>0.3214394</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.01558234</c:v>
+                  <c:v>0.3252045</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.02111661</c:v>
+                  <c:v>0.3275948</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.02606993</c:v>
+                  <c:v>0.3285942</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.03044019</c:v>
+                  <c:v>0.3281926</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.03422757</c:v>
+                  <c:v>0.3263862</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.03743469</c:v>
+                  <c:v>0.3231775</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.04006657</c:v>
+                  <c:v>0.3185755</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.04213076</c:v>
+                  <c:v>0.3125952</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.04363722</c:v>
+                  <c:v>0.3052585</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.04459834</c:v>
+                  <c:v>0.2965931</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.04502887</c:v>
+                  <c:v>0.286633</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.04494605</c:v>
+                  <c:v>0.2754188</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.04436929</c:v>
+                  <c:v>0.2629963</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.04332031</c:v>
+                  <c:v>0.2494174</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.04182297</c:v>
+                  <c:v>0.2347396</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.03990317</c:v>
+                  <c:v>0.2190255</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.03758879</c:v>
+                  <c:v>0.2023428</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.03490951</c:v>
+                  <c:v>0.1847638</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.03189676</c:v>
+                  <c:v>0.1663653</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.02858345</c:v>
+                  <c:v>0.1472277</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.025004</c:v>
+                  <c:v>0.1274354</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.02119402</c:v>
+                  <c:v>0.1070759</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.01719024</c:v>
+                  <c:v>0.08623937</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.01303032</c:v>
+                  <c:v>0.0650185</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0087526</c:v>
+                  <c:v>0.04350751</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.004396049</c:v>
+                  <c:v>0.02180238</c:v>
                 </c:pt>
                 <c:pt idx="90" c:formatCode="0.00E+00">
-                  <c:v>-1.102633e-8</c:v>
+                  <c:v>-5.464431e-8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.1065838</c:v>
+                  <c:v>-0.03955374</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.2129605</c:v>
+                  <c:v>-0.07894477</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.3189242</c:v>
+                  <c:v>-0.1180114</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.4242701</c:v>
+                  <c:v>-0.156593</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.5287979</c:v>
+                  <c:v>-0.1945324</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.6323083</c:v>
+                  <c:v>-0.2316745</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.7346074</c:v>
+                  <c:v>-0.2678684</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.835506</c:v>
+                  <c:v>-0.302968</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.9348204</c:v>
+                  <c:v>-0.336832</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.032373</c:v>
+                  <c:v>-0.3693255</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.127996</c:v>
+                  <c:v>-0.4003204</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.221526</c:v>
+                  <c:v>-0.4296953</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.31281</c:v>
+                  <c:v>-0.4573368</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.401702</c:v>
+                  <c:v>-0.4831398</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.488067</c:v>
+                  <c:v>-0.5070078</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.57178</c:v>
+                  <c:v>-0.5288534</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.652726</c:v>
+                  <c:v>-0.5485991</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.730799</c:v>
+                  <c:v>-0.5661771</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.805906</c:v>
+                  <c:v>-0.5815294</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.877963</c:v>
+                  <c:v>-0.5946087</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.946898</c:v>
+                  <c:v>-0.6053777</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.012652</c:v>
+                  <c:v>-0.61381</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.075175</c:v>
+                  <c:v>-0.6198898</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.134427</c:v>
+                  <c:v>-0.6236116</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.190383</c:v>
+                  <c:v>-0.6249804</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.243025</c:v>
+                  <c:v>-0.6240118</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.292348</c:v>
+                  <c:v>-0.6207313</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.338356</c:v>
+                  <c:v>-0.6151743</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.381066</c:v>
+                  <c:v>-0.6073859</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.4205</c:v>
+                  <c:v>-0.5974208</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.456693</c:v>
+                  <c:v>-0.5853417</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.489688</c:v>
+                  <c:v>-0.5712206</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.519535</c:v>
+                  <c:v>-0.5551375</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.546293</c:v>
+                  <c:v>-0.5371791</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2.570029</c:v>
+                  <c:v>-0.5174403</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2.590815</c:v>
+                  <c:v>-0.4960213</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2.60873</c:v>
+                  <c:v>-0.4730284</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2.623859</c:v>
+                  <c:v>-0.4485737</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2.63629</c:v>
+                  <c:v>-0.4227728</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.646117</c:v>
+                  <c:v>-0.3957468</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2.653437</c:v>
+                  <c:v>-0.3676183</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.658351</c:v>
+                  <c:v>-0.3385141</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2.660959</c:v>
+                  <c:v>-0.3085618</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.661367</c:v>
+                  <c:v>-0.2778907</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2.65968</c:v>
+                  <c:v>-0.2466314</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.656003</c:v>
+                  <c:v>-0.2149132</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.650442</c:v>
+                  <c:v>-0.1828665</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.643103</c:v>
+                  <c:v>-0.1506187</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.634091</c:v>
+                  <c:v>-0.1182973</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2.623507</c:v>
+                  <c:v>-0.08602589</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.611454</c:v>
+                  <c:v>-0.05392524</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2.598031</c:v>
+                  <c:v>-0.02211424</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2.583333</c:v>
+                  <c:v>0.009294008</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.567456</c:v>
+                  <c:v>0.040189</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2.550489</c:v>
+                  <c:v>0.07046606</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.53252</c:v>
+                  <c:v>0.1000256</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.513633</c:v>
+                  <c:v>0.1287724</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.493907</c:v>
+                  <c:v>0.1566184</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2.473422</c:v>
+                  <c:v>0.1834798</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2.452249</c:v>
+                  <c:v>0.2092801</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.430457</c:v>
+                  <c:v>0.2339492</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2.408114</c:v>
+                  <c:v>0.2574221</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.385281</c:v>
+                  <c:v>0.2796419</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.362018</c:v>
+                  <c:v>0.3005567</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2.338381</c:v>
+                  <c:v>0.3201224</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.314424</c:v>
+                  <c:v>0.3383001</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.290195</c:v>
+                  <c:v>0.3550584</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.265744</c:v>
+                  <c:v>0.3703717</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.241115</c:v>
+                  <c:v>0.3842202</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.216352</c:v>
+                  <c:v>0.3965905</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.191498</c:v>
+                  <c:v>0.4074746</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.166591</c:v>
+                  <c:v>0.4168702</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2.141673</c:v>
+                  <c:v>0.4247799</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2.116782</c:v>
+                  <c:v>0.4312115</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.091955</c:v>
+                  <c:v>0.4361776</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.067231</c:v>
+                  <c:v>0.4396945</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.042648</c:v>
+                  <c:v>0.4417832</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.018244</c:v>
+                  <c:v>0.4424679</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1.994059</c:v>
+                  <c:v>0.4417762</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.970133</c:v>
+                  <c:v>0.4397389</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.946506</c:v>
+                  <c:v>0.436389</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.923222</c:v>
+                  <c:v>0.4317622</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.900324</c:v>
+                  <c:v>0.425896</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1.877857</c:v>
+                  <c:v>0.4188294</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.855869</c:v>
+                  <c:v>0.4106027</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.834407</c:v>
+                  <c:v>0.4012575</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.813522</c:v>
+                  <c:v>0.3908357</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.793265</c:v>
+                  <c:v>0.3793801</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.77369</c:v>
+                  <c:v>0.366933</c:v>
                 </c:pt>
                 <c:pt idx="180" c:formatCode="0.00E+00">
-                  <c:v>1.754851</c:v>
+                  <c:v>0.3535374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1953,7 +1953,7 @@
                           <c15:sqref/>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A:$A</c15:sqref>
+                          <c15:sqref>CX!$A:$A</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2511,7 +2511,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$1:$A$181</c15:sqref>
+                          <c15:sqref>CX!$A$1:$A$181</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3323,7 +3323,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A:$A</c:f>
+              <c:f>CY!$A:$A</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
@@ -3875,7 +3875,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$1:$B$181</c:f>
+              <c:f>CY!$B$1:$B$181</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="181"/>
@@ -3883,544 +3883,544 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01486774</c:v>
+                  <c:v>0.01731733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03020662</c:v>
+                  <c:v>0.03513668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04599787</c:v>
+                  <c:v>0.05343626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.06222206</c:v>
+                  <c:v>0.07219354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.07885905</c:v>
+                  <c:v>0.09138524</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.09588796</c:v>
+                  <c:v>0.1109872</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1132871</c:v>
+                  <c:v>0.1309746</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1310341</c:v>
+                  <c:v>0.1513216</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1491057</c:v>
+                  <c:v>0.1720014</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1674777</c:v>
+                  <c:v>0.1929865</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1861253</c:v>
+                  <c:v>0.2142484</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2050228</c:v>
+                  <c:v>0.2357576</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2241435</c:v>
+                  <c:v>0.2574838</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2434602</c:v>
+                  <c:v>0.2793958</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2629445</c:v>
+                  <c:v>0.3014615</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2825677</c:v>
+                  <c:v>0.3236479</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3022999</c:v>
+                  <c:v>0.3459212</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.322111</c:v>
+                  <c:v>0.3682472</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3419698</c:v>
+                  <c:v>0.3905903</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3618452</c:v>
+                  <c:v>0.4129152</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3817047</c:v>
+                  <c:v>0.4351854</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.4015162</c:v>
+                  <c:v>0.4573641</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.421247</c:v>
+                  <c:v>0.4794146</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.4408638</c:v>
+                  <c:v>0.5012991</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.4603339</c:v>
+                  <c:v>0.5229807</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.4796241</c:v>
+                  <c:v>0.5444219</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.4987013</c:v>
+                  <c:v>0.5655854</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5175326</c:v>
+                  <c:v>0.5864342</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.5360858</c:v>
+                  <c:v>0.606932</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5543288</c:v>
+                  <c:v>0.6270428</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5722303</c:v>
+                  <c:v>0.6467316</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5897592</c:v>
+                  <c:v>0.6659636</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6068863</c:v>
+                  <c:v>0.6847059</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6235824</c:v>
+                  <c:v>0.7029263</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.6398198</c:v>
+                  <c:v>0.7205939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.6555722</c:v>
+                  <c:v>0.7376795</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.6708145</c:v>
+                  <c:v>0.7541556</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.6855233</c:v>
+                  <c:v>0.7699962</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.6996763</c:v>
+                  <c:v>0.7851771</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.7132539</c:v>
+                  <c:v>0.799677</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.7262375</c:v>
+                  <c:v>0.8134758</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.7386108</c:v>
+                  <c:v>0.8265561</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.7503596</c:v>
+                  <c:v>0.8389032</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.7614717</c:v>
+                  <c:v>0.8505043</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.7719373</c:v>
+                  <c:v>0.8613497</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.7817489</c:v>
+                  <c:v>0.8714322</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.7909009</c:v>
+                  <c:v>0.8807472</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.7993907</c:v>
+                  <c:v>0.8892931</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.8072178</c:v>
+                  <c:v>0.8970708</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.8143841</c:v>
+                  <c:v>0.9040847</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.820894</c:v>
+                  <c:v>0.9103411</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.8267544</c:v>
+                  <c:v>0.9158499</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.8319746</c:v>
+                  <c:v>0.9206234</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.8365661</c:v>
+                  <c:v>0.9246768</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.8405429</c:v>
+                  <c:v>0.9280279</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.8439213</c:v>
+                  <c:v>0.9306973</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.8467198</c:v>
+                  <c:v>0.9327081</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.8489587</c:v>
+                  <c:v>0.9340855</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.8506607</c:v>
+                  <c:v>0.9348577</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.8518503</c:v>
+                  <c:v>0.9350543</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.8525534</c:v>
+                  <c:v>0.9347074</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.852798</c:v>
+                  <c:v>0.9338509</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.8526136</c:v>
+                  <c:v>0.9325205</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.8520305</c:v>
+                  <c:v>0.9307532</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.8510808</c:v>
+                  <c:v>0.9285874</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.8497971</c:v>
+                  <c:v>0.9260626</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.8482131</c:v>
+                  <c:v>0.9232194</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.8463631</c:v>
+                  <c:v>0.920099</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.8442818</c:v>
+                  <c:v>0.9167429</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.8420041</c:v>
+                  <c:v>0.9131932</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.839565</c:v>
+                  <c:v>0.9094915</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.8369995</c:v>
+                  <c:v>0.9056799</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.8343421</c:v>
+                  <c:v>0.9017994</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.8316264</c:v>
+                  <c:v>0.8978906</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.8288863</c:v>
+                  <c:v>0.8939934</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.8261536</c:v>
+                  <c:v>0.8901461</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.8234599</c:v>
+                  <c:v>0.8863861</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.8208349</c:v>
+                  <c:v>0.8827491</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.8183072</c:v>
+                  <c:v>0.8792688</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.8159037</c:v>
+                  <c:v>0.8759776</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.8136494</c:v>
+                  <c:v>0.8729051</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.8115675</c:v>
+                  <c:v>0.8700789</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.8096792</c:v>
+                  <c:v>0.867524</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.8080034</c:v>
+                  <c:v>0.8652631</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.8065566</c:v>
+                  <c:v>0.8633159</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.8053532</c:v>
+                  <c:v>0.8616993</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.8044047</c:v>
+                  <c:v>0.8604271</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.8037207</c:v>
+                  <c:v>0.8595107</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.8033077</c:v>
+                  <c:v>0.8589576</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.8031695</c:v>
+                  <c:v>0.8587728</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.8032848</c:v>
+                  <c:v>0.8589772</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.8036294</c:v>
+                  <c:v>0.8595888</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.8041995</c:v>
+                  <c:v>0.8606025</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.8049892</c:v>
+                  <c:v>0.8620102</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.8059898</c:v>
+                  <c:v>0.8638002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.8071904</c:v>
+                  <c:v>0.8659579</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.8085778</c:v>
+                  <c:v>0.8684652</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.8101366</c:v>
+                  <c:v>0.8713017</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.8118492</c:v>
+                  <c:v>0.8744433</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.8136962</c:v>
+                  <c:v>0.8778638</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.8156561</c:v>
+                  <c:v>0.8815342</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.8177056</c:v>
+                  <c:v>0.8854229</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.8198199</c:v>
+                  <c:v>0.8894964</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.8219727</c:v>
+                  <c:v>0.8937188</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.8241361</c:v>
+                  <c:v>0.8980524</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.8262813</c:v>
+                  <c:v>0.902458</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.8283786</c:v>
+                  <c:v>0.906895</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.830397</c:v>
+                  <c:v>0.9113216</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.8323054</c:v>
+                  <c:v>0.9156949</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.8340719</c:v>
+                  <c:v>0.9199713</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.8356641</c:v>
+                  <c:v>0.9241068</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.83705</c:v>
+                  <c:v>0.928057</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.8381974</c:v>
+                  <c:v>0.9317778</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.8390743</c:v>
+                  <c:v>0.9352251</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.8396493</c:v>
+                  <c:v>0.9383553</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.8398916</c:v>
+                  <c:v>0.9411256</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.8397711</c:v>
+                  <c:v>0.9434942</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.8392586</c:v>
+                  <c:v>0.9454201</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.8383263</c:v>
+                  <c:v>0.9468641</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.8369474</c:v>
+                  <c:v>0.9477885</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.8350966</c:v>
+                  <c:v>0.9481568</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.8327502</c:v>
+                  <c:v>0.9479354</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.8298861</c:v>
+                  <c:v>0.9470921</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.8264841</c:v>
+                  <c:v>0.9455972</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.8225257</c:v>
+                  <c:v>0.9434232</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.8179947</c:v>
+                  <c:v>0.9405456</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.8128768</c:v>
+                  <c:v>0.9369422</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.8071597</c:v>
+                  <c:v>0.9325933</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.8008333</c:v>
+                  <c:v>0.9274825</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.7938904</c:v>
+                  <c:v>0.9215962</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.7863251</c:v>
+                  <c:v>0.9149233</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.7781346</c:v>
+                  <c:v>0.9074562</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.7693177</c:v>
+                  <c:v>0.8991896</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.7598761</c:v>
+                  <c:v>0.890122</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.7498136</c:v>
+                  <c:v>0.8802541</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.7391359</c:v>
+                  <c:v>0.8695899</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.7278514</c:v>
+                  <c:v>0.8581361</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.7159701</c:v>
+                  <c:v>0.8459019</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.703505</c:v>
+                  <c:v>0.8329003</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.69047</c:v>
+                  <c:v>0.8191455</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.6768814</c:v>
+                  <c:v>0.8046548</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.6627579</c:v>
+                  <c:v>0.7894486</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.6481189</c:v>
+                  <c:v>0.7735482</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.6329865</c:v>
+                  <c:v>0.7569785</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.6173835</c:v>
+                  <c:v>0.7397654</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.6013342</c:v>
+                  <c:v>0.7219368</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.5848647</c:v>
+                  <c:v>0.7035229</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.5680018</c:v>
+                  <c:v>0.6845547</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.5507739</c:v>
+                  <c:v>0.6650654</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.5332097</c:v>
+                  <c:v>0.645089</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.5153386</c:v>
+                  <c:v>0.6246601</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.4971915</c:v>
+                  <c:v>0.6038154</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.478799</c:v>
+                  <c:v>0.5825912</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.4601928</c:v>
+                  <c:v>0.5610255</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.4414041</c:v>
+                  <c:v>0.5391555</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.4224653</c:v>
+                  <c:v>0.5170203</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.4034079</c:v>
+                  <c:v>0.4946578</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.3842636</c:v>
+                  <c:v>0.472106</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.3650646</c:v>
+                  <c:v>0.4494041</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.3458419</c:v>
+                  <c:v>0.4265894</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.3266271</c:v>
+                  <c:v>0.4037005</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.3074504</c:v>
+                  <c:v>0.3807739</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.2883426</c:v>
+                  <c:v>0.3578473</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.2693332</c:v>
+                  <c:v>0.3349566</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.2504508</c:v>
+                  <c:v>0.3121369</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.2317246</c:v>
+                  <c:v>0.2894236</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.2131816</c:v>
+                  <c:v>0.2668503</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.1948493</c:v>
+                  <c:v>0.2444506</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.1767536</c:v>
+                  <c:v>0.2222564</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.1589197</c:v>
+                  <c:v>0.2002989</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.1413727</c:v>
+                  <c:v>0.1786091</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.1241357</c:v>
+                  <c:v>0.1572158</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.1072322</c:v>
+                  <c:v>0.1361483</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.09068415</c:v>
+                  <c:v>0.1154339</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.07451261</c:v>
+                  <c:v>0.095099</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.05873857</c:v>
+                  <c:v>0.07517014</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.04338139</c:v>
+                  <c:v>0.05567174</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.02846056</c:v>
+                  <c:v>0.03662858</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.01399405</c:v>
+                  <c:v>0.01806356</c:v>
                 </c:pt>
                 <c:pt idx="180" c:formatCode="0.00E+00">
-                  <c:v>-6.888494e-8</c:v>
+                  <c:v>-8.918847e-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4468,7 +4468,7 @@
                           <c15:sqref/>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$A:$A</c15:sqref>
+                          <c15:sqref>CY!$A:$A</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5026,7 +5026,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$A$1:$A$181</c15:sqref>
+                          <c15:sqref>CY!$A$1:$A$181</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12326,6 +12326,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{eabcd331-9114-42ed-9113-c820414c49a0}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -15105,8 +15110,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3746500" y="2654300"/>
-        <a:ext cx="4826000" cy="2743200"/>
+        <a:off x="3813810" y="2583180"/>
+        <a:ext cx="4917440" cy="2667000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15123,16 +15128,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>424180</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619760</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15140,8 +15145,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10299700" y="2654300"/>
-        <a:ext cx="4826000" cy="2743200"/>
+        <a:off x="3246120" y="1132840"/>
+        <a:ext cx="4917440" cy="2667000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15175,8 +15180,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10299700" y="2654300"/>
-        <a:ext cx="4826000" cy="2743200"/>
+        <a:off x="10482580" y="2583180"/>
+        <a:ext cx="4917440" cy="2667000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15210,8 +15215,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10299700" y="2654300"/>
-        <a:ext cx="4826000" cy="2743200"/>
+        <a:off x="10482580" y="2583180"/>
+        <a:ext cx="4917440" cy="2667000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15245,8 +15250,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7861300" y="284480"/>
-        <a:ext cx="4826000" cy="2743200"/>
+        <a:off x="8006080" y="279400"/>
+        <a:ext cx="4917440" cy="2667000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15512,12 +15517,12 @@
   <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B181"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="25.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="25.7818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -15525,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>-0.6618267</v>
+        <v>-0.3139475</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -15533,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.6585666</v>
+        <v>-0.3223777</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -15541,7 +15546,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.6548356</v>
+        <v>-0.3302091</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -15549,7 +15554,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.6506427</v>
+        <v>-0.3374149</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -15557,7 +15562,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.6459967</v>
+        <v>-0.3439684</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -15565,7 +15570,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.6409063</v>
+        <v>-0.3498428</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -15573,7 +15578,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.6353799</v>
+        <v>-0.3550116</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -15581,7 +15586,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.6294258</v>
+        <v>-0.3594491</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -15589,7 +15594,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.6230522</v>
+        <v>-0.3631299</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -15597,7 +15602,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.6162668</v>
+        <v>-0.3660296</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -15605,7 +15610,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.6090776</v>
+        <v>-0.3681245</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -15613,7 +15618,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.6014921</v>
+        <v>-0.3693926</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -15621,7 +15626,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.5935181</v>
+        <v>-0.3698131</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -15629,7 +15634,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.5851629</v>
+        <v>-0.3693666</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -15637,7 +15642,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.5764344</v>
+        <v>-0.3680358</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -15645,7 +15650,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.5673403</v>
+        <v>-0.3658056</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -15653,7 +15658,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.5578881</v>
+        <v>-0.3626629</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -15661,7 +15666,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.548086</v>
+        <v>-0.358597</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -15669,7 +15674,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.5379425</v>
+        <v>-0.3536002</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -15677,7 +15682,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.5274659</v>
+        <v>-0.3476673</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -15685,7 +15690,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-0.5166654</v>
+        <v>-0.3407964</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -15693,7 +15698,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.5055505</v>
+        <v>-0.3329885</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -15701,7 +15706,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.4941311</v>
+        <v>-0.3242483</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -15709,7 +15714,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.482418</v>
+        <v>-0.3145838</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -15717,7 +15722,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.4704223</v>
+        <v>-0.3040066</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -15725,7 +15730,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.4581562</v>
+        <v>-0.2925322</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -15733,7 +15738,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.4456324</v>
+        <v>-0.2801797</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -15741,7 +15746,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-0.4328644</v>
+        <v>-0.2669724</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -15749,7 +15754,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-0.4198668</v>
+        <v>-0.2529371</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -15757,7 +15762,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-0.406655</v>
+        <v>-0.2381051</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -15765,7 +15770,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.3932451</v>
+        <v>-0.2225111</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -15773,7 +15778,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.3796547</v>
+        <v>-0.2061943</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -15781,7 +15786,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.3659017</v>
+        <v>-0.1891974</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -15789,7 +15794,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.3520056</v>
+        <v>-0.171567</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -15797,7 +15802,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-0.3379865</v>
+        <v>-0.1533535</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -15805,7 +15810,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-0.3238654</v>
+        <v>-0.1346111</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -15813,7 +15818,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.3096647</v>
+        <v>-0.115397</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -15821,7 +15826,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.2954071</v>
+        <v>-0.09577194</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -15829,7 +15834,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.2811166</v>
+        <v>-0.07579993</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -15837,7 +15842,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.2668179</v>
+        <v>-0.05554745</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -15845,7 +15850,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.2525364</v>
+        <v>-0.0350839</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -15853,7 +15858,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.2382981</v>
+        <v>-0.01448097</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -15861,7 +15866,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-0.2241299</v>
+        <v>0.00618775</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -15869,7 +15874,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-0.2100589</v>
+        <v>0.02684666</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -15877,7 +15882,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.1961126</v>
+        <v>0.04741893</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -15885,7 +15890,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.1823193</v>
+        <v>0.06782644</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -15893,7 +15898,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.1687067</v>
+        <v>0.08799065</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -15901,7 +15906,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.1553034</v>
+        <v>0.1078321</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -15909,7 +15914,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.1421372</v>
+        <v>0.1272721</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -15917,7 +15922,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-0.1292364</v>
+        <v>0.1462317</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -15925,7 +15930,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-0.1166285</v>
+        <v>0.1646328</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -15933,7 +15938,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-0.1043407</v>
+        <v>0.182399</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -15941,7 +15946,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-0.09239964</v>
+        <v>0.1994549</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -15949,7 +15954,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.08083121</v>
+        <v>0.2157275</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -15957,7 +15962,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-0.0696604</v>
+        <v>0.2311457</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -15965,7 +15970,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-0.05891119</v>
+        <v>0.2456417</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -15973,7 +15978,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-0.04860646</v>
+        <v>0.2591504</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -15981,7 +15986,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-0.03876757</v>
+        <v>0.2716107</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -15989,7 +15994,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-0.02941483</v>
+        <v>0.2829646</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -15997,7 +16002,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-0.0205666</v>
+        <v>0.2931591</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -16005,7 +16010,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-0.01223973</v>
+        <v>0.3021453</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -16013,7 +16018,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-0.004449361</v>
+        <v>0.309879</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -16021,7 +16026,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.002791518</v>
+        <v>0.3163216</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -16029,7 +16034,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.009471731</v>
+        <v>0.3214394</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -16037,7 +16042,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.01558234</v>
+        <v>0.3252045</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -16045,7 +16050,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.02111661</v>
+        <v>0.3275948</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -16053,7 +16058,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.02606993</v>
+        <v>0.3285942</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -16061,7 +16066,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.03044019</v>
+        <v>0.3281926</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -16069,7 +16074,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.03422757</v>
+        <v>0.3263862</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -16077,7 +16082,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.03743469</v>
+        <v>0.3231775</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -16085,7 +16090,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.04006657</v>
+        <v>0.3185755</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -16093,7 +16098,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.04213076</v>
+        <v>0.3125952</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -16101,7 +16106,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.04363722</v>
+        <v>0.3052585</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -16109,7 +16114,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.04459834</v>
+        <v>0.2965931</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -16117,7 +16122,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.04502887</v>
+        <v>0.286633</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -16125,7 +16130,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.04494605</v>
+        <v>0.2754188</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -16133,7 +16138,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.04436929</v>
+        <v>0.2629963</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -16141,7 +16146,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.04332031</v>
+        <v>0.2494174</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -16149,7 +16154,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.04182297</v>
+        <v>0.2347396</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -16157,7 +16162,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.03990317</v>
+        <v>0.2190255</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -16165,7 +16170,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.03758879</v>
+        <v>0.2023428</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -16173,7 +16178,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.03490951</v>
+        <v>0.1847638</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -16181,7 +16186,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.03189676</v>
+        <v>0.1663653</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -16189,7 +16194,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.02858345</v>
+        <v>0.1472277</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -16197,7 +16202,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.025004</v>
+        <v>0.1274354</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -16205,7 +16210,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.02119402</v>
+        <v>0.1070759</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -16213,7 +16218,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.01719024</v>
+        <v>0.08623937</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -16221,7 +16226,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.01303032</v>
+        <v>0.0650185</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -16229,7 +16234,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.0087526</v>
+        <v>0.04350751</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -16237,7 +16242,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.004396049</v>
+        <v>0.02180238</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -16245,7 +16250,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>-1.102633e-8</v>
+        <v>-5.464431e-8</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -16253,7 +16258,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.1065838</v>
+        <v>-0.03955374</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -16261,7 +16266,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.2129605</v>
+        <v>-0.07894477</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -16269,7 +16274,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.3189242</v>
+        <v>-0.1180114</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -16277,7 +16282,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.4242701</v>
+        <v>-0.156593</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -16285,7 +16290,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.5287979</v>
+        <v>-0.1945324</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -16293,7 +16298,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.6323083</v>
+        <v>-0.2316745</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -16301,7 +16306,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.7346074</v>
+        <v>-0.2678684</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -16309,7 +16314,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.835506</v>
+        <v>-0.302968</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -16317,7 +16322,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.9348204</v>
+        <v>-0.336832</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -16325,7 +16330,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1.032373</v>
+        <v>-0.3693255</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -16333,7 +16338,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1.127996</v>
+        <v>-0.4003204</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -16341,7 +16346,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1.221526</v>
+        <v>-0.4296953</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -16349,7 +16354,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1.31281</v>
+        <v>-0.4573368</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -16357,7 +16362,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1.401702</v>
+        <v>-0.4831398</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -16365,7 +16370,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1.488067</v>
+        <v>-0.5070078</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -16373,7 +16378,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1.57178</v>
+        <v>-0.5288534</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -16381,7 +16386,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1.652726</v>
+        <v>-0.5485991</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -16389,7 +16394,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1.730799</v>
+        <v>-0.5661771</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -16397,7 +16402,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1.805906</v>
+        <v>-0.5815294</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -16405,7 +16410,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1.877963</v>
+        <v>-0.5946087</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -16413,7 +16418,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1.946898</v>
+        <v>-0.6053777</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -16421,7 +16426,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>2.012652</v>
+        <v>-0.61381</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -16429,7 +16434,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2.075175</v>
+        <v>-0.6198898</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -16437,7 +16442,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>2.134427</v>
+        <v>-0.6236116</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -16445,7 +16450,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>2.190383</v>
+        <v>-0.6249804</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -16453,7 +16458,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>2.243025</v>
+        <v>-0.6240118</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -16461,7 +16466,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>2.292348</v>
+        <v>-0.6207313</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -16469,7 +16474,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>2.338356</v>
+        <v>-0.6151743</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -16477,7 +16482,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>2.381066</v>
+        <v>-0.6073859</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -16485,7 +16490,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>2.4205</v>
+        <v>-0.5974208</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -16493,7 +16498,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2.456693</v>
+        <v>-0.5853417</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -16501,7 +16506,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>2.489688</v>
+        <v>-0.5712206</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -16509,7 +16514,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>2.519535</v>
+        <v>-0.5551375</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -16517,7 +16522,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>2.546293</v>
+        <v>-0.5371791</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -16525,7 +16530,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>2.570029</v>
+        <v>-0.5174403</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -16533,7 +16538,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>2.590815</v>
+        <v>-0.4960213</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -16541,7 +16546,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>2.60873</v>
+        <v>-0.4730284</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -16549,7 +16554,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>2.623859</v>
+        <v>-0.4485737</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -16557,7 +16562,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2.63629</v>
+        <v>-0.4227728</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -16565,7 +16570,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>2.646117</v>
+        <v>-0.3957468</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -16573,7 +16578,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>2.653437</v>
+        <v>-0.3676183</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -16581,7 +16586,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>2.658351</v>
+        <v>-0.3385141</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -16589,7 +16594,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>2.660959</v>
+        <v>-0.3085618</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -16597,7 +16602,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>2.661367</v>
+        <v>-0.2778907</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -16605,7 +16610,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>2.65968</v>
+        <v>-0.2466314</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -16613,7 +16618,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2.656003</v>
+        <v>-0.2149132</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -16621,7 +16626,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>2.650442</v>
+        <v>-0.1828665</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -16629,7 +16634,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>2.643103</v>
+        <v>-0.1506187</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -16637,7 +16642,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>2.634091</v>
+        <v>-0.1182973</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -16645,7 +16650,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>2.623507</v>
+        <v>-0.08602589</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -16653,7 +16658,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>2.611454</v>
+        <v>-0.05392524</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -16661,7 +16666,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>2.598031</v>
+        <v>-0.02211424</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -16669,7 +16674,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>2.583333</v>
+        <v>0.009294008</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -16677,7 +16682,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>2.567456</v>
+        <v>0.040189</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -16685,7 +16690,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>2.550489</v>
+        <v>0.07046606</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -16693,7 +16698,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>2.53252</v>
+        <v>0.1000256</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -16701,7 +16706,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>2.513633</v>
+        <v>0.1287724</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -16709,7 +16714,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>2.493907</v>
+        <v>0.1566184</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -16717,7 +16722,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2.473422</v>
+        <v>0.1834798</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -16725,7 +16730,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>2.452249</v>
+        <v>0.2092801</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -16733,7 +16738,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>2.430457</v>
+        <v>0.2339492</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -16741,7 +16746,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>2.408114</v>
+        <v>0.2574221</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -16749,7 +16754,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>2.385281</v>
+        <v>0.2796419</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -16757,7 +16762,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>2.362018</v>
+        <v>0.3005567</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -16765,7 +16770,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>2.338381</v>
+        <v>0.3201224</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -16773,7 +16778,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>2.314424</v>
+        <v>0.3383001</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -16781,7 +16786,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>2.290195</v>
+        <v>0.3550584</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -16789,7 +16794,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2.265744</v>
+        <v>0.3703717</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -16797,7 +16802,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>2.241115</v>
+        <v>0.3842202</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -16805,7 +16810,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2.216352</v>
+        <v>0.3965905</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -16813,7 +16818,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>2.191498</v>
+        <v>0.4074746</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -16821,7 +16826,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>2.166591</v>
+        <v>0.4168702</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -16829,7 +16834,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>2.141673</v>
+        <v>0.4247799</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -16837,7 +16842,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>2.116782</v>
+        <v>0.4312115</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -16845,7 +16850,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>2.091955</v>
+        <v>0.4361776</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -16853,7 +16858,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>2.067231</v>
+        <v>0.4396945</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -16861,7 +16866,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>2.042648</v>
+        <v>0.4417832</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -16869,7 +16874,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>2.018244</v>
+        <v>0.4424679</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -16877,7 +16882,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>1.994059</v>
+        <v>0.4417762</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -16885,7 +16890,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>1.970133</v>
+        <v>0.4397389</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -16893,7 +16898,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>1.946506</v>
+        <v>0.436389</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -16901,7 +16906,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>1.923222</v>
+        <v>0.4317622</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -16909,7 +16914,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>1.900324</v>
+        <v>0.425896</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -16917,7 +16922,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>1.877857</v>
+        <v>0.4188294</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -16925,7 +16930,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>1.855869</v>
+        <v>0.4106027</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -16933,7 +16938,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>1.834407</v>
+        <v>0.4012575</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -16941,7 +16946,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>1.813522</v>
+        <v>0.3908357</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -16949,7 +16954,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>1.793265</v>
+        <v>0.3793801</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -16957,7 +16962,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>1.77369</v>
+        <v>0.366933</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -16965,7 +16970,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>1.754851</v>
+        <v>0.3535374</v>
       </c>
     </row>
   </sheetData>
@@ -16981,11 +16986,11 @@
   <sheetPr/>
   <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
@@ -17000,7 +17005,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01486774</v>
+        <v>0.01731733</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -17008,7 +17013,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.03020662</v>
+        <v>0.03513668</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -17016,7 +17021,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.04599787</v>
+        <v>0.05343626</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -17024,7 +17029,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.06222206</v>
+        <v>0.07219354</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -17032,7 +17037,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.07885905</v>
+        <v>0.09138524</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -17040,7 +17045,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.09588796</v>
+        <v>0.1109872</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -17048,7 +17053,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1132871</v>
+        <v>0.1309746</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -17056,7 +17061,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.1310341</v>
+        <v>0.1513216</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -17064,7 +17069,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.1491057</v>
+        <v>0.1720014</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -17072,7 +17077,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.1674777</v>
+        <v>0.1929865</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -17080,7 +17085,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.1861253</v>
+        <v>0.2142484</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -17088,7 +17093,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.2050228</v>
+        <v>0.2357576</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -17096,7 +17101,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.2241435</v>
+        <v>0.2574838</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -17104,7 +17109,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.2434602</v>
+        <v>0.2793958</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -17112,7 +17117,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.2629445</v>
+        <v>0.3014615</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -17120,7 +17125,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.2825677</v>
+        <v>0.3236479</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -17128,7 +17133,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.3022999</v>
+        <v>0.3459212</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -17136,7 +17141,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.322111</v>
+        <v>0.3682472</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -17144,7 +17149,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.3419698</v>
+        <v>0.3905903</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -17152,7 +17157,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.3618452</v>
+        <v>0.4129152</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -17160,7 +17165,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.3817047</v>
+        <v>0.4351854</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -17168,7 +17173,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.4015162</v>
+        <v>0.4573641</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -17176,7 +17181,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.421247</v>
+        <v>0.4794146</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -17184,7 +17189,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.4408638</v>
+        <v>0.5012991</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -17192,7 +17197,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.4603339</v>
+        <v>0.5229807</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -17200,7 +17205,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.4796241</v>
+        <v>0.5444219</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -17208,7 +17213,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.4987013</v>
+        <v>0.5655854</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -17216,7 +17221,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.5175326</v>
+        <v>0.5864342</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -17224,7 +17229,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.5360858</v>
+        <v>0.606932</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -17232,7 +17237,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.5543288</v>
+        <v>0.6270428</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -17240,7 +17245,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.5722303</v>
+        <v>0.6467316</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -17248,7 +17253,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.5897592</v>
+        <v>0.6659636</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -17256,7 +17261,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.6068863</v>
+        <v>0.6847059</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -17264,7 +17269,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.6235824</v>
+        <v>0.7029263</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -17272,7 +17277,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.6398198</v>
+        <v>0.7205939</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -17280,7 +17285,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.6555722</v>
+        <v>0.7376795</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -17288,7 +17293,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.6708145</v>
+        <v>0.7541556</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -17296,7 +17301,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.6855233</v>
+        <v>0.7699962</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -17304,7 +17309,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.6996763</v>
+        <v>0.7851771</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -17312,7 +17317,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.7132539</v>
+        <v>0.799677</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -17320,7 +17325,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.7262375</v>
+        <v>0.8134758</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -17328,7 +17333,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.7386108</v>
+        <v>0.8265561</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -17336,7 +17341,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.7503596</v>
+        <v>0.8389032</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -17344,7 +17349,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.7614717</v>
+        <v>0.8505043</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -17352,7 +17357,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.7719373</v>
+        <v>0.8613497</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -17360,7 +17365,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.7817489</v>
+        <v>0.8714322</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -17368,7 +17373,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.7909009</v>
+        <v>0.8807472</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -17376,7 +17381,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.7993907</v>
+        <v>0.8892931</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -17384,7 +17389,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.8072178</v>
+        <v>0.8970708</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -17392,7 +17397,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.8143841</v>
+        <v>0.9040847</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -17400,7 +17405,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.820894</v>
+        <v>0.9103411</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -17408,7 +17413,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.8267544</v>
+        <v>0.9158499</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -17416,7 +17421,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.8319746</v>
+        <v>0.9206234</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -17424,7 +17429,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.8365661</v>
+        <v>0.9246768</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -17432,7 +17437,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.8405429</v>
+        <v>0.9280279</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -17440,7 +17445,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.8439213</v>
+        <v>0.9306973</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -17448,7 +17453,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.8467198</v>
+        <v>0.9327081</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -17456,7 +17461,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.8489587</v>
+        <v>0.9340855</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -17464,7 +17469,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.8506607</v>
+        <v>0.9348577</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -17472,7 +17477,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.8518503</v>
+        <v>0.9350543</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -17480,7 +17485,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.8525534</v>
+        <v>0.9347074</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -17488,7 +17493,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.852798</v>
+        <v>0.9338509</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -17496,7 +17501,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.8526136</v>
+        <v>0.9325205</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -17504,7 +17509,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.8520305</v>
+        <v>0.9307532</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -17512,7 +17517,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.8510808</v>
+        <v>0.9285874</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -17520,7 +17525,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.8497971</v>
+        <v>0.9260626</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -17528,7 +17533,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.8482131</v>
+        <v>0.9232194</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -17536,7 +17541,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.8463631</v>
+        <v>0.920099</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -17544,7 +17549,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.8442818</v>
+        <v>0.9167429</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -17552,7 +17557,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.8420041</v>
+        <v>0.9131932</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -17560,7 +17565,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.839565</v>
+        <v>0.9094915</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -17568,7 +17573,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.8369995</v>
+        <v>0.9056799</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -17576,7 +17581,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.8343421</v>
+        <v>0.9017994</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -17584,7 +17589,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.8316264</v>
+        <v>0.8978906</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -17592,7 +17597,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.8288863</v>
+        <v>0.8939934</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -17600,7 +17605,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.8261536</v>
+        <v>0.8901461</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -17608,7 +17613,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.8234599</v>
+        <v>0.8863861</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -17616,7 +17621,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.8208349</v>
+        <v>0.8827491</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -17624,7 +17629,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.8183072</v>
+        <v>0.8792688</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -17632,7 +17637,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.8159037</v>
+        <v>0.8759776</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -17640,7 +17645,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.8136494</v>
+        <v>0.8729051</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -17648,7 +17653,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.8115675</v>
+        <v>0.8700789</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -17656,7 +17661,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.8096792</v>
+        <v>0.867524</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -17664,7 +17669,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.8080034</v>
+        <v>0.8652631</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -17672,7 +17677,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.8065566</v>
+        <v>0.8633159</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -17680,7 +17685,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.8053532</v>
+        <v>0.8616993</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -17688,7 +17693,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.8044047</v>
+        <v>0.8604271</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -17696,7 +17701,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.8037207</v>
+        <v>0.8595107</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -17704,7 +17709,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.8033077</v>
+        <v>0.8589576</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -17712,7 +17717,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.8031695</v>
+        <v>0.8587728</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -17720,7 +17725,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.8032848</v>
+        <v>0.8589772</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -17728,7 +17733,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.8036294</v>
+        <v>0.8595888</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -17736,7 +17741,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.8041995</v>
+        <v>0.8606025</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -17744,7 +17749,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.8049892</v>
+        <v>0.8620102</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -17752,7 +17757,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.8059898</v>
+        <v>0.8638002</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -17760,7 +17765,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.8071904</v>
+        <v>0.8659579</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -17768,7 +17773,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.8085778</v>
+        <v>0.8684652</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -17776,7 +17781,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.8101366</v>
+        <v>0.8713017</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -17784,7 +17789,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.8118492</v>
+        <v>0.8744433</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -17792,7 +17797,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.8136962</v>
+        <v>0.8778638</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -17800,7 +17805,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.8156561</v>
+        <v>0.8815342</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -17808,7 +17813,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.8177056</v>
+        <v>0.8854229</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -17816,7 +17821,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.8198199</v>
+        <v>0.8894964</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -17824,7 +17829,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.8219727</v>
+        <v>0.8937188</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -17832,7 +17837,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.8241361</v>
+        <v>0.8980524</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -17840,7 +17845,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.8262813</v>
+        <v>0.902458</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -17848,7 +17853,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.8283786</v>
+        <v>0.906895</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -17856,7 +17861,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.830397</v>
+        <v>0.9113216</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -17864,7 +17869,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.8323054</v>
+        <v>0.9156949</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -17872,7 +17877,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.8340719</v>
+        <v>0.9199713</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -17880,7 +17885,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.8356641</v>
+        <v>0.9241068</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -17888,7 +17893,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.83705</v>
+        <v>0.928057</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -17896,7 +17901,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.8381974</v>
+        <v>0.9317778</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -17904,7 +17909,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.8390743</v>
+        <v>0.9352251</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -17912,7 +17917,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.8396493</v>
+        <v>0.9383553</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -17920,7 +17925,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.8398916</v>
+        <v>0.9411256</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -17928,7 +17933,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.8397711</v>
+        <v>0.9434942</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -17936,7 +17941,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.8392586</v>
+        <v>0.9454201</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -17944,7 +17949,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.8383263</v>
+        <v>0.9468641</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -17952,7 +17957,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.8369474</v>
+        <v>0.9477885</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -17960,7 +17965,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.8350966</v>
+        <v>0.9481568</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -17968,7 +17973,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.8327502</v>
+        <v>0.9479354</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -17976,7 +17981,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.8298861</v>
+        <v>0.9470921</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -17984,7 +17989,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.8264841</v>
+        <v>0.9455972</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -17992,7 +17997,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.8225257</v>
+        <v>0.9434232</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -18000,7 +18005,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.8179947</v>
+        <v>0.9405456</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -18008,7 +18013,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.8128768</v>
+        <v>0.9369422</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -18016,7 +18021,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.8071597</v>
+        <v>0.9325933</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -18024,7 +18029,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.8008333</v>
+        <v>0.9274825</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -18032,7 +18037,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.7938904</v>
+        <v>0.9215962</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -18040,7 +18045,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.7863251</v>
+        <v>0.9149233</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -18048,7 +18053,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.7781346</v>
+        <v>0.9074562</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -18056,7 +18061,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.7693177</v>
+        <v>0.8991896</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -18064,7 +18069,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.7598761</v>
+        <v>0.890122</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -18072,7 +18077,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.7498136</v>
+        <v>0.8802541</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -18080,7 +18085,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.7391359</v>
+        <v>0.8695899</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -18088,7 +18093,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.7278514</v>
+        <v>0.8581361</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -18096,7 +18101,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.7159701</v>
+        <v>0.8459019</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -18104,7 +18109,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.703505</v>
+        <v>0.8329003</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -18112,7 +18117,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.69047</v>
+        <v>0.8191455</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -18120,7 +18125,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.6768814</v>
+        <v>0.8046548</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -18128,7 +18133,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.6627579</v>
+        <v>0.7894486</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -18136,7 +18141,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.6481189</v>
+        <v>0.7735482</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -18144,7 +18149,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.6329865</v>
+        <v>0.7569785</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -18152,7 +18157,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.6173835</v>
+        <v>0.7397654</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -18160,7 +18165,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.6013342</v>
+        <v>0.7219368</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -18168,7 +18173,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.5848647</v>
+        <v>0.7035229</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -18176,7 +18181,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.5680018</v>
+        <v>0.6845547</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -18184,7 +18189,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.5507739</v>
+        <v>0.6650654</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -18192,7 +18197,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.5332097</v>
+        <v>0.645089</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -18200,7 +18205,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.5153386</v>
+        <v>0.6246601</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -18208,7 +18213,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.4971915</v>
+        <v>0.6038154</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -18216,7 +18221,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.478799</v>
+        <v>0.5825912</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -18224,7 +18229,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.4601928</v>
+        <v>0.5610255</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -18232,7 +18237,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.4414041</v>
+        <v>0.5391555</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -18240,7 +18245,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.4224653</v>
+        <v>0.5170203</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -18248,7 +18253,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.4034079</v>
+        <v>0.4946578</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -18256,7 +18261,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.3842636</v>
+        <v>0.472106</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -18264,7 +18269,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.3650646</v>
+        <v>0.4494041</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -18272,7 +18277,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.3458419</v>
+        <v>0.4265894</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -18280,7 +18285,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.3266271</v>
+        <v>0.4037005</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -18288,7 +18293,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.3074504</v>
+        <v>0.3807739</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -18296,7 +18301,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.2883426</v>
+        <v>0.3578473</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -18304,7 +18309,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.2693332</v>
+        <v>0.3349566</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -18312,7 +18317,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.2504508</v>
+        <v>0.3121369</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -18320,7 +18325,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.2317246</v>
+        <v>0.2894236</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -18328,7 +18333,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.2131816</v>
+        <v>0.2668503</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -18336,7 +18341,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.1948493</v>
+        <v>0.2444506</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -18344,7 +18349,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.1767536</v>
+        <v>0.2222564</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -18352,7 +18357,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.1589197</v>
+        <v>0.2002989</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -18360,7 +18365,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.1413727</v>
+        <v>0.1786091</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -18368,7 +18373,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.1241357</v>
+        <v>0.1572158</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -18376,7 +18381,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.1072322</v>
+        <v>0.1361483</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -18384,7 +18389,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.09068415</v>
+        <v>0.1154339</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -18392,7 +18397,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.07451261</v>
+        <v>0.095099</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -18400,7 +18405,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>0.05873857</v>
+        <v>0.07517014</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -18408,7 +18413,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0.04338139</v>
+        <v>0.05567174</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -18416,7 +18421,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.02846056</v>
+        <v>0.03662858</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -18424,7 +18429,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.01399405</v>
+        <v>0.01806356</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -18432,7 +18437,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>-6.888494e-8</v>
+        <v>-8.918847e-8</v>
       </c>
     </row>
   </sheetData>
@@ -18452,7 +18457,7 @@
       <selection activeCell="B1" sqref="B1:B181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
@@ -19919,7 +19924,7 @@
       <selection activeCell="B1" sqref="B1:B181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9"/>
   </cols>
@@ -21384,16 +21389,16 @@
   <sheetPr/>
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
   <cols>
-    <col min="6" max="6" width="11.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778"/>
-    <col min="8" max="8" width="14.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="6" max="6" width="11.4454545454545" customWidth="1"/>
+    <col min="7" max="7" width="11.7818181818182"/>
+    <col min="8" max="8" width="14.4454545454545" customWidth="1"/>
+    <col min="10" max="10" width="12.8909090909091"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/Assets/Scripts/Log/Boat/风载荷系数.xlsx
+++ b/Assets/Scripts/Log/Boat/风载荷系数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480" activeTab="1"/>
+    <workbookView windowWidth="19788" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="CX" sheetId="1" r:id="rId1"/>
@@ -1365,547 +1365,547 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="181"/>
                 <c:pt idx="0">
-                  <c:v>-0.3139475</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.3223777</c:v>
+                  <c:v>0.0001523164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.3302091</c:v>
+                  <c:v>0.0006093577</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.3374149</c:v>
+                  <c:v>0.001371396</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.3439684</c:v>
+                  <c:v>0.002438866</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.3498428</c:v>
+                  <c:v>0.00381235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.3550116</c:v>
+                  <c:v>0.005492536</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.3594491</c:v>
+                  <c:v>0.007480187</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.3631299</c:v>
+                  <c:v>0.009776084</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.3660296</c:v>
+                  <c:v>0.01238098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.3681245</c:v>
+                  <c:v>0.01529551</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.3693926</c:v>
+                  <c:v>0.01852017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.3698131</c:v>
+                  <c:v>0.02205521</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.3693666</c:v>
+                  <c:v>0.02590053</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.3680358</c:v>
+                  <c:v>0.03005565</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.3658056</c:v>
+                  <c:v>0.03451958</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.3626629</c:v>
+                  <c:v>0.03929076</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.358597</c:v>
+                  <c:v>0.04436693</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.3536002</c:v>
+                  <c:v>0.04974508</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.3476673</c:v>
+                  <c:v>0.05542132</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.3407964</c:v>
+                  <c:v>0.06139087</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.3329885</c:v>
+                  <c:v>0.06764781</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.3242483</c:v>
+                  <c:v>0.0741852</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.3145838</c:v>
+                  <c:v>0.08099486</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.3040066</c:v>
+                  <c:v>0.08806731</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.2925322</c:v>
+                  <c:v>0.09539179</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.2801797</c:v>
+                  <c:v>0.1029561</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.2669724</c:v>
+                  <c:v>0.1107466</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.2529371</c:v>
+                  <c:v>0.1187482</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.2381051</c:v>
+                  <c:v>0.1269442</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.2225111</c:v>
+                  <c:v>0.1353165</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.2061943</c:v>
+                  <c:v>0.1438453</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.1891974</c:v>
+                  <c:v>0.1525092</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.171567</c:v>
+                  <c:v>0.1612856</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.1533535</c:v>
+                  <c:v>0.17015</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.1346111</c:v>
+                  <c:v>0.1790766</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.115397</c:v>
+                  <c:v>0.1880382</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.09577194</c:v>
+                  <c:v>0.1970061</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.07579993</c:v>
+                  <c:v>0.2059504</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.05554745</c:v>
+                  <c:v>0.2148401</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.0350839</c:v>
+                  <c:v>0.223643</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.01448097</c:v>
+                  <c:v>0.2323257</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.00618775</c:v>
+                  <c:v>0.2408544</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.02684666</c:v>
+                  <c:v>0.2491942</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.04741893</c:v>
+                  <c:v>0.2573097</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.06782644</c:v>
+                  <c:v>0.265165</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.08799065</c:v>
+                  <c:v>0.2727243</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1078321</c:v>
+                  <c:v>0.2799511</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1272721</c:v>
+                  <c:v>0.2868095</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1462317</c:v>
+                  <c:v>0.2932634</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1646328</c:v>
+                  <c:v>0.2992776</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.182399</c:v>
+                  <c:v>0.3048172</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1994549</c:v>
+                  <c:v>0.3098481</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.2157275</c:v>
+                  <c:v>0.3143375</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.2311457</c:v>
+                  <c:v>0.3182533</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.2456417</c:v>
+                  <c:v>0.3215655</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.2591504</c:v>
+                  <c:v>0.3242449</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.2716107</c:v>
+                  <c:v>0.3262648</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.2829646</c:v>
+                  <c:v>0.3275996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.2931591</c:v>
+                  <c:v>0.3282267</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.3021453</c:v>
+                  <c:v>0.328125</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.309879</c:v>
+                  <c:v>0.3272763</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.3163216</c:v>
+                  <c:v>0.3256647</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.3214394</c:v>
+                  <c:v>0.3232771</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.3252045</c:v>
+                  <c:v>0.3201033</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.3275948</c:v>
+                  <c:v>0.3161357</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.3285942</c:v>
+                  <c:v>0.31137</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.3281926</c:v>
+                  <c:v>0.3058049</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.3263862</c:v>
+                  <c:v>0.2994422</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.3231775</c:v>
+                  <c:v>0.2922868</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.3185755</c:v>
+                  <c:v>0.2843471</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.3125952</c:v>
+                  <c:v>0.2756343</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.3052585</c:v>
+                  <c:v>0.2661631</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.2965931</c:v>
+                  <c:v>0.2559514</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.286633</c:v>
+                  <c:v>0.2450201</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.2754188</c:v>
+                  <c:v>0.2333934</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.2629963</c:v>
+                  <c:v>0.2210981</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.2494174</c:v>
+                  <c:v>0.2081643</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.2347396</c:v>
+                  <c:v>0.1946247</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.2190255</c:v>
+                  <c:v>0.1805149</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.2023428</c:v>
+                  <c:v>0.1658729</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1847638</c:v>
+                  <c:v>0.1507389</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1663653</c:v>
+                  <c:v>0.1351557</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.1472277</c:v>
+                  <c:v>0.1191677</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.1274354</c:v>
+                  <c:v>0.1028215</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.1070759</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.08623937</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.0650185</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.04350751</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.02180238</c:v>
+                  <c:v>0.08616514</c:v>
+                </c:pt>
+                <c:pt idx="86" c:formatCode="0.00E+00">
+                  <c:v>0.06924808</c:v>
+                </c:pt>
+                <c:pt idx="87" c:formatCode="0.00E+00">
+                  <c:v>0.05212114</c:v>
+                </c:pt>
+                <c:pt idx="88" c:formatCode="0.00E+00">
+                  <c:v>0.03483576</c:v>
+                </c:pt>
+                <c:pt idx="89" c:formatCode="0.00E+00">
+                  <c:v>0.01744441</c:v>
                 </c:pt>
                 <c:pt idx="90" c:formatCode="0.00E+00">
-                  <c:v>-5.464431e-8</c:v>
+                  <c:v>-4.371139e-8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.03955374</c:v>
+                  <c:v>-0.0174445</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.07894477</c:v>
+                  <c:v>-0.03483585</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.1180114</c:v>
+                  <c:v>-0.05212123</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.156593</c:v>
+                  <c:v>-0.06924816</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.1945324</c:v>
+                  <c:v>-0.08616522</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.2316745</c:v>
+                  <c:v>-0.1028216</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.2678684</c:v>
+                  <c:v>-0.1191678</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.302968</c:v>
+                  <c:v>-0.1351558</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.336832</c:v>
+                  <c:v>-0.1507391</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-0.3693255</c:v>
+                  <c:v>-0.1658729</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-0.4003204</c:v>
+                  <c:v>-0.180515</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.4296953</c:v>
+                  <c:v>-0.1946248</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-0.4573368</c:v>
+                  <c:v>-0.2081643</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-0.4831398</c:v>
+                  <c:v>-0.2210981</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-0.5070078</c:v>
+                  <c:v>-0.2333935</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.5288534</c:v>
+                  <c:v>-0.2450202</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-0.5485991</c:v>
+                  <c:v>-0.2559515</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-0.5661771</c:v>
+                  <c:v>-0.2661632</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.5815294</c:v>
+                  <c:v>-0.2756343</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.5946087</c:v>
+                  <c:v>-0.2843471</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.6053777</c:v>
+                  <c:v>-0.2922869</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.61381</c:v>
+                  <c:v>-0.2994422</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-0.6198898</c:v>
+                  <c:v>-0.3058049</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-0.6236116</c:v>
+                  <c:v>-0.31137</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-0.6249804</c:v>
+                  <c:v>-0.3161357</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.6240118</c:v>
+                  <c:v>-0.3201033</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.6207313</c:v>
+                  <c:v>-0.3232771</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-0.6151743</c:v>
+                  <c:v>-0.3256647</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-0.6073859</c:v>
+                  <c:v>-0.3272763</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.5974208</c:v>
+                  <c:v>-0.328125</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.5853417</c:v>
+                  <c:v>-0.3282267</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.5712206</c:v>
+                  <c:v>-0.3275996</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.5551375</c:v>
+                  <c:v>-0.3262647</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.5371791</c:v>
+                  <c:v>-0.3242449</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-0.5174403</c:v>
+                  <c:v>-0.3215654</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-0.4960213</c:v>
+                  <c:v>-0.3182533</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.4730284</c:v>
+                  <c:v>-0.3143374</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.4485737</c:v>
+                  <c:v>-0.3098481</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.4227728</c:v>
+                  <c:v>-0.3048171</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>-0.3957468</c:v>
+                  <c:v>-0.2992776</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.3676183</c:v>
+                  <c:v>-0.2932634</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.3385141</c:v>
+                  <c:v>-0.2868094</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-0.3085618</c:v>
+                  <c:v>-0.2799511</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.2778907</c:v>
+                  <c:v>-0.2727242</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-0.2466314</c:v>
+                  <c:v>-0.265165</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-0.2149132</c:v>
+                  <c:v>-0.2573096</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.1828665</c:v>
+                  <c:v>-0.2491941</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.1506187</c:v>
+                  <c:v>-0.2408543</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.1182973</c:v>
+                  <c:v>-0.2323257</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.08602589</c:v>
+                  <c:v>-0.223643</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.05392524</c:v>
+                  <c:v>-0.21484</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-0.02211424</c:v>
+                  <c:v>-0.2059504</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.009294008</c:v>
+                  <c:v>-0.197006</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.040189</c:v>
+                  <c:v>-0.1880381</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.07046606</c:v>
+                  <c:v>-0.1790766</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.1000256</c:v>
+                  <c:v>-0.1701499</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.1287724</c:v>
+                  <c:v>-0.1612856</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.1566184</c:v>
+                  <c:v>-0.1525092</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.1834798</c:v>
+                  <c:v>-0.1438452</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.2092801</c:v>
+                  <c:v>-0.1353165</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.2339492</c:v>
+                  <c:v>-0.1269442</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.2574221</c:v>
+                  <c:v>-0.1187482</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.2796419</c:v>
+                  <c:v>-0.1107465</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.3005567</c:v>
+                  <c:v>-0.1029561</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.3201224</c:v>
+                  <c:v>-0.0953917</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.3383001</c:v>
+                  <c:v>-0.08806728</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.3550584</c:v>
+                  <c:v>-0.08099486</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.3703717</c:v>
+                  <c:v>-0.07418516</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.3842202</c:v>
+                  <c:v>-0.0676478</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.3965905</c:v>
+                  <c:v>-0.06139081</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.4074746</c:v>
+                  <c:v>-0.05542131</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.4168702</c:v>
+                  <c:v>-0.049745</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.4247799</c:v>
+                  <c:v>-0.04436689</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.4312115</c:v>
+                  <c:v>-0.03929076</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.4361776</c:v>
+                  <c:v>-0.03451955</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.4396945</c:v>
+                  <c:v>-0.03005564</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.4417832</c:v>
+                  <c:v>-0.02590049</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.4424679</c:v>
+                  <c:v>-0.02205519</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.4417762</c:v>
+                  <c:v>-0.01852018</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.4397389</c:v>
+                  <c:v>-0.01529549</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.436389</c:v>
+                  <c:v>-0.01238097</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.4317622</c:v>
+                  <c:v>-0.00977606</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.425896</c:v>
+                  <c:v>-0.007480179</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.4188294</c:v>
+                  <c:v>-0.00549254</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.4106027</c:v>
+                  <c:v>-0.003812341</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.4012575</c:v>
+                  <c:v>-0.002438866</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.3908357</c:v>
+                  <c:v>-0.001371388</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.3793801</c:v>
+                  <c:v>-0.0006093562</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.366933</c:v>
+                  <c:v>-0.0001523132</c:v>
                 </c:pt>
                 <c:pt idx="180" c:formatCode="0.00E+00">
-                  <c:v>0.3535374</c:v>
+                  <c:v>-3.821371e-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15110,8 +15110,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3813810" y="2583180"/>
-        <a:ext cx="4917440" cy="2667000"/>
+        <a:off x="3746500" y="2654300"/>
+        <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15145,8 +15145,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3246120" y="1132840"/>
-        <a:ext cx="4917440" cy="2667000"/>
+        <a:off x="3188970" y="1163320"/>
+        <a:ext cx="4834890" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15180,8 +15180,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10482580" y="2583180"/>
-        <a:ext cx="4917440" cy="2667000"/>
+        <a:off x="10299700" y="2654300"/>
+        <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15215,8 +15215,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10482580" y="2583180"/>
-        <a:ext cx="4917440" cy="2667000"/>
+        <a:off x="10299700" y="2654300"/>
+        <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15250,8 +15250,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8006080" y="279400"/>
-        <a:ext cx="4917440" cy="2667000"/>
+        <a:off x="7861300" y="284480"/>
+        <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -15516,13 +15516,13 @@
   <sheetPr/>
   <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="25.7818181818182" customWidth="1"/>
+    <col min="2" max="2" width="25.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -15530,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>-0.3139475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -15538,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.3223777</v>
+        <v>0.0001523164</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -15546,7 +15546,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.3302091</v>
+        <v>0.0006093577</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -15554,7 +15554,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.3374149</v>
+        <v>0.001371396</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -15562,7 +15562,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.3439684</v>
+        <v>0.002438866</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -15570,7 +15570,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.3498428</v>
+        <v>0.00381235</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -15578,7 +15578,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.3550116</v>
+        <v>0.005492536</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -15586,7 +15586,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.3594491</v>
+        <v>0.007480187</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -15594,7 +15594,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.3631299</v>
+        <v>0.009776084</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -15602,7 +15602,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-0.3660296</v>
+        <v>0.01238098</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -15610,7 +15610,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.3681245</v>
+        <v>0.01529551</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -15618,7 +15618,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.3693926</v>
+        <v>0.01852017</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -15626,7 +15626,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.3698131</v>
+        <v>0.02205521</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -15634,7 +15634,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.3693666</v>
+        <v>0.02590053</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -15642,7 +15642,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.3680358</v>
+        <v>0.03005565</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -15650,7 +15650,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.3658056</v>
+        <v>0.03451958</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -15658,7 +15658,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.3626629</v>
+        <v>0.03929076</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -15666,7 +15666,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.358597</v>
+        <v>0.04436693</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -15674,7 +15674,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.3536002</v>
+        <v>0.04974508</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -15682,7 +15682,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.3476673</v>
+        <v>0.05542132</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -15690,7 +15690,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-0.3407964</v>
+        <v>0.06139087</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -15698,7 +15698,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.3329885</v>
+        <v>0.06764781</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -15706,7 +15706,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.3242483</v>
+        <v>0.0741852</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -15714,7 +15714,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.3145838</v>
+        <v>0.08099486</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -15722,7 +15722,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.3040066</v>
+        <v>0.08806731</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -15730,7 +15730,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-0.2925322</v>
+        <v>0.09539179</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -15738,7 +15738,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.2801797</v>
+        <v>0.1029561</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -15746,7 +15746,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-0.2669724</v>
+        <v>0.1107466</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -15754,7 +15754,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-0.2529371</v>
+        <v>0.1187482</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -15762,7 +15762,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-0.2381051</v>
+        <v>0.1269442</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -15770,7 +15770,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-0.2225111</v>
+        <v>0.1353165</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -15778,7 +15778,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-0.2061943</v>
+        <v>0.1438453</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -15786,7 +15786,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-0.1891974</v>
+        <v>0.1525092</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -15794,7 +15794,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-0.171567</v>
+        <v>0.1612856</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -15802,7 +15802,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-0.1533535</v>
+        <v>0.17015</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -15810,7 +15810,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-0.1346111</v>
+        <v>0.1790766</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -15818,7 +15818,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.115397</v>
+        <v>0.1880382</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -15826,7 +15826,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.09577194</v>
+        <v>0.1970061</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -15834,7 +15834,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.07579993</v>
+        <v>0.2059504</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -15842,7 +15842,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.05554745</v>
+        <v>0.2148401</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -15850,7 +15850,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.0350839</v>
+        <v>0.223643</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -15858,7 +15858,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.01448097</v>
+        <v>0.2323257</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -15866,7 +15866,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.00618775</v>
+        <v>0.2408544</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -15874,7 +15874,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.02684666</v>
+        <v>0.2491942</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -15882,7 +15882,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.04741893</v>
+        <v>0.2573097</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -15890,7 +15890,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.06782644</v>
+        <v>0.265165</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -15898,7 +15898,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.08799065</v>
+        <v>0.2727243</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -15906,7 +15906,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.1078321</v>
+        <v>0.2799511</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -15914,7 +15914,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.1272721</v>
+        <v>0.2868095</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -15922,7 +15922,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.1462317</v>
+        <v>0.2932634</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -15930,7 +15930,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.1646328</v>
+        <v>0.2992776</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -15938,7 +15938,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.182399</v>
+        <v>0.3048172</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -15946,7 +15946,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.1994549</v>
+        <v>0.3098481</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -15954,7 +15954,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.2157275</v>
+        <v>0.3143375</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -15962,7 +15962,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.2311457</v>
+        <v>0.3182533</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -15970,7 +15970,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.2456417</v>
+        <v>0.3215655</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -15978,7 +15978,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.2591504</v>
+        <v>0.3242449</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -15986,7 +15986,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.2716107</v>
+        <v>0.3262648</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -15994,7 +15994,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.2829646</v>
+        <v>0.3275996</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -16002,7 +16002,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.2931591</v>
+        <v>0.3282267</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -16010,7 +16010,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.3021453</v>
+        <v>0.328125</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -16018,7 +16018,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.309879</v>
+        <v>0.3272763</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -16026,7 +16026,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.3163216</v>
+        <v>0.3256647</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -16034,7 +16034,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.3214394</v>
+        <v>0.3232771</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -16042,7 +16042,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.3252045</v>
+        <v>0.3201033</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -16050,7 +16050,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.3275948</v>
+        <v>0.3161357</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -16058,7 +16058,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.3285942</v>
+        <v>0.31137</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -16066,7 +16066,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.3281926</v>
+        <v>0.3058049</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -16074,7 +16074,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.3263862</v>
+        <v>0.2994422</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -16082,7 +16082,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.3231775</v>
+        <v>0.2922868</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -16090,7 +16090,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.3185755</v>
+        <v>0.2843471</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -16098,7 +16098,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.3125952</v>
+        <v>0.2756343</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -16106,7 +16106,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.3052585</v>
+        <v>0.2661631</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -16114,7 +16114,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.2965931</v>
+        <v>0.2559514</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -16122,7 +16122,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.286633</v>
+        <v>0.2450201</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -16130,7 +16130,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.2754188</v>
+        <v>0.2333934</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -16138,7 +16138,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.2629963</v>
+        <v>0.2210981</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -16146,7 +16146,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.2494174</v>
+        <v>0.2081643</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -16154,7 +16154,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.2347396</v>
+        <v>0.1946247</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -16162,7 +16162,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.2190255</v>
+        <v>0.1805149</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -16170,7 +16170,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.2023428</v>
+        <v>0.1658729</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -16178,7 +16178,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.1847638</v>
+        <v>0.1507389</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -16186,7 +16186,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.1663653</v>
+        <v>0.1351557</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -16194,7 +16194,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.1472277</v>
+        <v>0.1191677</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -16202,7 +16202,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.1274354</v>
+        <v>0.1028215</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -16210,39 +16210,39 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.1070759</v>
+        <v>0.08616514</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87">
-        <v>0.08623937</v>
+      <c r="B87" s="1">
+        <v>0.06924808</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88">
-        <v>0.0650185</v>
+      <c r="B88" s="1">
+        <v>0.05212114</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89">
-        <v>0.04350751</v>
+      <c r="B89" s="1">
+        <v>0.03483576</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90">
-        <v>0.02180238</v>
+      <c r="B90" s="1">
+        <v>0.01744441</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -16250,7 +16250,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>-5.464431e-8</v>
+        <v>-4.371139e-8</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -16258,7 +16258,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-0.03955374</v>
+        <v>-0.0174445</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -16266,7 +16266,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.07894477</v>
+        <v>-0.03483585</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -16274,7 +16274,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.1180114</v>
+        <v>-0.05212123</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -16282,7 +16282,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.156593</v>
+        <v>-0.06924816</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -16290,7 +16290,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.1945324</v>
+        <v>-0.08616522</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -16298,7 +16298,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-0.2316745</v>
+        <v>-0.1028216</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -16306,7 +16306,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-0.2678684</v>
+        <v>-0.1191678</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -16314,7 +16314,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-0.302968</v>
+        <v>-0.1351558</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -16322,7 +16322,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-0.336832</v>
+        <v>-0.1507391</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -16330,7 +16330,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-0.3693255</v>
+        <v>-0.1658729</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -16338,7 +16338,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-0.4003204</v>
+        <v>-0.180515</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -16346,7 +16346,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-0.4296953</v>
+        <v>-0.1946248</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -16354,7 +16354,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-0.4573368</v>
+        <v>-0.2081643</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -16362,7 +16362,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-0.4831398</v>
+        <v>-0.2210981</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -16370,7 +16370,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-0.5070078</v>
+        <v>-0.2333935</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -16378,7 +16378,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-0.5288534</v>
+        <v>-0.2450202</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -16386,7 +16386,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-0.5485991</v>
+        <v>-0.2559515</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -16394,7 +16394,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-0.5661771</v>
+        <v>-0.2661632</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -16402,7 +16402,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-0.5815294</v>
+        <v>-0.2756343</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -16410,7 +16410,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-0.5946087</v>
+        <v>-0.2843471</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -16418,7 +16418,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-0.6053777</v>
+        <v>-0.2922869</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -16426,7 +16426,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-0.61381</v>
+        <v>-0.2994422</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -16434,7 +16434,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-0.6198898</v>
+        <v>-0.3058049</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -16442,7 +16442,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-0.6236116</v>
+        <v>-0.31137</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -16450,7 +16450,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-0.6249804</v>
+        <v>-0.3161357</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -16458,7 +16458,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-0.6240118</v>
+        <v>-0.3201033</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -16466,7 +16466,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>-0.6207313</v>
+        <v>-0.3232771</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -16474,7 +16474,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-0.6151743</v>
+        <v>-0.3256647</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -16482,7 +16482,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-0.6073859</v>
+        <v>-0.3272763</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -16490,7 +16490,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-0.5974208</v>
+        <v>-0.328125</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -16498,7 +16498,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>-0.5853417</v>
+        <v>-0.3282267</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -16506,7 +16506,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.5712206</v>
+        <v>-0.3275996</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -16514,7 +16514,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-0.5551375</v>
+        <v>-0.3262647</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -16522,7 +16522,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-0.5371791</v>
+        <v>-0.3242449</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -16530,7 +16530,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>-0.5174403</v>
+        <v>-0.3215654</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -16538,7 +16538,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>-0.4960213</v>
+        <v>-0.3182533</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -16546,7 +16546,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-0.4730284</v>
+        <v>-0.3143374</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -16554,7 +16554,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-0.4485737</v>
+        <v>-0.3098481</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -16562,7 +16562,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>-0.4227728</v>
+        <v>-0.3048171</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -16570,7 +16570,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>-0.3957468</v>
+        <v>-0.2992776</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -16578,7 +16578,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-0.3676183</v>
+        <v>-0.2932634</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -16586,7 +16586,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>-0.3385141</v>
+        <v>-0.2868094</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -16594,7 +16594,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>-0.3085618</v>
+        <v>-0.2799511</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -16602,7 +16602,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>-0.2778907</v>
+        <v>-0.2727242</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -16610,7 +16610,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>-0.2466314</v>
+        <v>-0.265165</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -16618,7 +16618,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-0.2149132</v>
+        <v>-0.2573096</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -16626,7 +16626,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-0.1828665</v>
+        <v>-0.2491941</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -16634,7 +16634,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>-0.1506187</v>
+        <v>-0.2408543</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -16642,7 +16642,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.1182973</v>
+        <v>-0.2323257</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -16650,7 +16650,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-0.08602589</v>
+        <v>-0.223643</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -16658,7 +16658,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-0.05392524</v>
+        <v>-0.21484</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -16666,7 +16666,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>-0.02211424</v>
+        <v>-0.2059504</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -16674,7 +16674,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.009294008</v>
+        <v>-0.197006</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -16682,7 +16682,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.040189</v>
+        <v>-0.1880381</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -16690,7 +16690,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.07046606</v>
+        <v>-0.1790766</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -16698,7 +16698,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.1000256</v>
+        <v>-0.1701499</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -16706,7 +16706,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.1287724</v>
+        <v>-0.1612856</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -16714,7 +16714,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.1566184</v>
+        <v>-0.1525092</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -16722,7 +16722,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.1834798</v>
+        <v>-0.1438452</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -16730,7 +16730,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.2092801</v>
+        <v>-0.1353165</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -16738,7 +16738,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.2339492</v>
+        <v>-0.1269442</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -16746,7 +16746,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.2574221</v>
+        <v>-0.1187482</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -16754,7 +16754,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.2796419</v>
+        <v>-0.1107465</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -16762,7 +16762,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.3005567</v>
+        <v>-0.1029561</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -16770,7 +16770,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.3201224</v>
+        <v>-0.0953917</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -16778,7 +16778,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.3383001</v>
+        <v>-0.08806728</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -16786,7 +16786,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.3550584</v>
+        <v>-0.08099486</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -16794,7 +16794,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.3703717</v>
+        <v>-0.07418516</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -16802,7 +16802,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.3842202</v>
+        <v>-0.0676478</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -16810,7 +16810,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.3965905</v>
+        <v>-0.06139081</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -16818,7 +16818,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.4074746</v>
+        <v>-0.05542131</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -16826,7 +16826,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.4168702</v>
+        <v>-0.049745</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -16834,7 +16834,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.4247799</v>
+        <v>-0.04436689</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -16842,7 +16842,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.4312115</v>
+        <v>-0.03929076</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -16850,7 +16850,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.4361776</v>
+        <v>-0.03451955</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -16858,7 +16858,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.4396945</v>
+        <v>-0.03005564</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -16866,7 +16866,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.4417832</v>
+        <v>-0.02590049</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -16874,7 +16874,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.4424679</v>
+        <v>-0.02205519</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -16882,7 +16882,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.4417762</v>
+        <v>-0.01852018</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -16890,7 +16890,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.4397389</v>
+        <v>-0.01529549</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -16898,7 +16898,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.436389</v>
+        <v>-0.01238097</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -16906,7 +16906,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.4317622</v>
+        <v>-0.00977606</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -16914,7 +16914,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.425896</v>
+        <v>-0.007480179</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -16922,7 +16922,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.4188294</v>
+        <v>-0.00549254</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -16930,7 +16930,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.4106027</v>
+        <v>-0.003812341</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -16938,7 +16938,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>0.4012575</v>
+        <v>-0.002438866</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -16946,7 +16946,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>0.3908357</v>
+        <v>-0.001371388</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -16954,7 +16954,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0.3793801</v>
+        <v>-0.0006093562</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -16962,7 +16962,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.366933</v>
+        <v>-0.0001523132</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -16970,7 +16970,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>0.3535374</v>
+        <v>-3.821371e-15</v>
       </c>
     </row>
   </sheetData>
@@ -16986,11 +16986,11 @@
   <sheetPr/>
   <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
@@ -18457,7 +18457,7 @@
       <selection activeCell="B1" sqref="B1:B181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
@@ -19924,7 +19924,7 @@
       <selection activeCell="B1" sqref="B1:B181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9"/>
   </cols>
@@ -21393,12 +21393,12 @@
       <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="11.4454545454545" customWidth="1"/>
-    <col min="7" max="7" width="11.7818181818182"/>
-    <col min="8" max="8" width="14.4454545454545" customWidth="1"/>
-    <col min="10" max="10" width="12.8909090909091"/>
+    <col min="6" max="6" width="11.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778"/>
+    <col min="8" max="8" width="14.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
